--- a/tests/test1/d40/N, 0.0.xlsx
+++ b/tests/test1/d40/N, 0.0.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Точ</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0005736999999967907</v>
+        <v>0.0005685999999975877</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.003878100000001439</v>
+        <v>0.003148000000003037</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.0003413000000023203</v>
+        <v>0.001051499999999095</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003267000000022335</v>
+        <v>0.0007033000000014056</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0005225000000024238</v>
+        <v>0.0005288000000014392</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0005446999999989544</v>
+        <v>0.0005171999999973309</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003558000000012385</v>
+        <v>0.0005369999999977892</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003248000000013462</v>
+        <v>0.0005496000000029255</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0005819000000002461</v>
+        <v>0.0005502000000028318</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003135000000042965</v>
+        <v>0.0005290000000002237</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0003162000000003218</v>
+        <v>0.0005412000000006856</v>
       </c>
     </row>
     <row r="13">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003054000000020096</v>
+        <v>0.0003118999999998096</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003195999999974219</v>
+        <v>0.0003160000000015373</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.000320100000003265</v>
+        <v>0.0003185999999999467</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003232999999980279</v>
+        <v>0.0003200999999997123</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.001495699999999545</v>
+        <v>0.000321500000001862</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0005245999999985429</v>
+        <v>0.0003190000000010684</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0005032000000042558</v>
+        <v>0.0003038000000010754</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003244999999978404</v>
+        <v>0.0003117999999986409</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0005552999999949293</v>
+        <v>0.0003428999999997018</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0003469999999978768</v>
+        <v>0.0006767999999972574</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.0005436999999943737</v>
+        <v>0.001262300000000494</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0005993999999986954</v>
+        <v>0.0003885999999972967</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0005159000000034553</v>
+        <v>0.0003507999999996514</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003254000000012525</v>
+        <v>0.0003617999999967481</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0003041000000010285</v>
+        <v>0.0005092999999973813</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0003240000000062082</v>
+        <v>0.000336700000001855</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0003255000000024211</v>
+        <v>0.0002905999999995856</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.000316800000000228</v>
+        <v>0.000339400000001433</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0005427999999980671</v>
+        <v>0.0003171000000001811</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0003138000000006969</v>
+        <v>0.0002947000000013134</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0003211999999948034</v>
+        <v>0.0002875000000024386</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003432999999972708</v>
+        <v>0.0003113999999975192</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0003440000000054511</v>
+        <v>0.0002825999999984674</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0009634000000033893</v>
+        <v>0.0002879000000000076</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003544000000061942</v>
+        <v>0.0008043999999998164</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.000358699999999601</v>
+        <v>0.0003479999999989047</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003191999999998529</v>
+        <v>0.0002983000000007507</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0002950000000012665</v>
+        <v>0.0003963999999996304</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.0003195999999974219</v>
+        <v>0.000298900000000657</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0003195999999974219</v>
+        <v>0.0002792000000013672</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.000308499999995604</v>
+        <v>0.0003236000000015338</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002932000000015478</v>
+        <v>0.0002944000000013602</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0003153000000040151</v>
+        <v>0.0002905000000019697</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0002958999999975731</v>
+        <v>0.0003209999999995716</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002972999999997228</v>
+        <v>0.0002950000000012665</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0004342000000008284</v>
+        <v>0.0002980000000007976</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003049999999973352</v>
+        <v>0.0007553999999991845</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003601000000017507</v>
+        <v>0.0003004999999980384</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003936000000024364</v>
+        <v>0.0003141999999982659</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0003469999999978768</v>
+        <v>0.0006467999999983931</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003675000000029627</v>
+        <v>0.0003030000000023847</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003372000000041453</v>
+        <v>0.0003077000000004659</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0004139999999992483</v>
+        <v>0.0003045999999997662</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003523000000029697</v>
+        <v>0.0003241999999978873</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0003405000000000769</v>
+        <v>0.0002990999999994415</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0003135000000042965</v>
+        <v>0.0002965999999986479</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0002934999999979482</v>
+        <v>0.0003202000000008809</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0007272000000000389</v>
+        <v>0.0002986000000007039</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003133000000019592</v>
+        <v>0.000291499999999445</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0002916000000041663</v>
+        <v>0.0004424000000007311</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0004422000000019466</v>
+        <v>0.0002984999999995352</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003262000000034959</v>
+        <v>0.0002969999999997697</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.001312400000003322</v>
+        <v>0.0002981999999995821</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003110999999975661</v>
+        <v>0.0003179000000024246</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003088000000062152</v>
+        <v>0.0003033000000023378</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003585000000043692</v>
+        <v>0.0003029000000012161</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003278999999949406</v>
+        <v>0.0003201999999973282</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003018000000025722</v>
+        <v>0.0002996000000017318</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002932000000015478</v>
+        <v>0.0002911999999994919</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0004258000000021411</v>
+        <v>0.001533599999998358</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003206999999960658</v>
+        <v>0.0003156000000004155</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0005085999999963065</v>
+        <v>0.0002902999999996325</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003150000000005093</v>
+        <v>0.0002973999999973387</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0002922999999981357</v>
+        <v>0.0003208000000007871</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003598000000053503</v>
+        <v>0.0002955000000000041</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003197999999997592</v>
+        <v>0.0002968000000009852</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003706000000036624</v>
+        <v>0.0003258999999999901</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0005616000000046029</v>
+        <v>0.0002919000000005667</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0003146000000029403</v>
+        <v>0.0002894000000033259</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0002977000000043972</v>
+        <v>0.0009377000000014846</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003421999999986269</v>
+        <v>0.0003194999999998061</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002923999999993043</v>
+        <v>0.0002943000000001916</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.000320100000003265</v>
+        <v>0.0004142999999992014</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.000301200000002666</v>
+        <v>0.0003180000000000405</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003220999999982155</v>
+        <v>0.0002988000000030411</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002881999999999607</v>
+        <v>0.0002968000000009852</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0002935999999991168</v>
+        <v>0.0003506999999984828</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003129999999984534</v>
+        <v>0.0002986000000007039</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003207000000031712</v>
+        <v>0.0002989999999982729</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0002992000000006101</v>
+        <v>0.0007832000000007611</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003786000000047807</v>
+        <v>0.0003115999999998564</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003162000000003218</v>
+        <v>0.0002989999999982729</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003517000000030635</v>
+        <v>0.0003033000000023378</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003002999999992539</v>
+        <v>0.0003159000000003687</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003157000000015842</v>
+        <v>0.0002904000000008011</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0003493000000034385</v>
+        <v>0.0002984999999995352</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0002958999999975731</v>
+        <v>0.0004209999999993386</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003244999999978404</v>
+        <v>0.0003038999999986913</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002972000000056596</v>
+        <v>0.0002996999999993477</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d40/N, 0.0.xlsx
+++ b/tests/test1/d40/N, 0.0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0005685999999975877</v>
+        <v>0.0007209999999986394</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.003148000000003037</v>
+        <v>0.001035200000004011</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.001051499999999095</v>
+        <v>0.001111800000003882</v>
       </c>
     </row>
     <row r="5">
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0007033000000014056</v>
+        <v>0.0003942000000023427</v>
       </c>
     </row>
     <row r="6">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.0005288000000014392</v>
+        <v>0.001246900000012374</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0005171999999973309</v>
+        <v>0.0007236000000006015</v>
       </c>
     </row>
     <row r="8">
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0005369999999977892</v>
+        <v>0.0003478000000001202</v>
       </c>
     </row>
     <row r="9">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0005496000000029255</v>
+        <v>0.0003444999999970833</v>
       </c>
     </row>
     <row r="10">
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.0005502000000028318</v>
+        <v>0.002821999999994773</v>
       </c>
     </row>
     <row r="11">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0005290000000002237</v>
+        <v>0.0003743999999983316</v>
       </c>
     </row>
     <row r="12">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0005412000000006856</v>
+        <v>0.0004038000000008424</v>
       </c>
     </row>
     <row r="13">
@@ -1110,7 +1110,7 @@
         <v>32.44854399781213</v>
       </c>
       <c r="H13" t="n">
-        <v>3.233702897852161</v>
+        <v>3.233702897852162</v>
       </c>
       <c r="I13" t="n">
         <v>4.573663047849449</v>
@@ -1128,7 +1128,7 @@
         <v>1.976729773584332e-28</v>
       </c>
       <c r="N13" t="n">
-        <v>8.739383905514205e-13</v>
+        <v>8.74281719255292e-13</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0003118999999998096</v>
+        <v>0.0006644999999991796</v>
       </c>
     </row>
     <row r="14">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003160000000015373</v>
+        <v>0.0003397999999918966</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003185999999999467</v>
+        <v>0.0003401000000025078</v>
       </c>
     </row>
     <row r="16">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003200999999997123</v>
+        <v>0.0003370999999958713</v>
       </c>
     </row>
     <row r="17">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.000321500000001862</v>
+        <v>0.0003324999999989586</v>
       </c>
     </row>
     <row r="18">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003190000000010684</v>
+        <v>0.0003208999999912976</v>
       </c>
     </row>
     <row r="19">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003038000000010754</v>
+        <v>0.0003685999999873957</v>
       </c>
     </row>
     <row r="20">
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003117999999986409</v>
+        <v>0.0003346000000021832</v>
       </c>
     </row>
     <row r="21">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003428999999997018</v>
+        <v>0.0003430999999949336</v>
       </c>
     </row>
     <row r="22">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.0006767999999972574</v>
+        <v>0.000705899999999815</v>
       </c>
     </row>
     <row r="23">
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.001262300000000494</v>
+        <v>0.000339299999993159</v>
       </c>
     </row>
     <row r="24">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0003885999999972967</v>
+        <v>0.0005697999999938475</v>
       </c>
     </row>
     <row r="25">
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003507999999996514</v>
+        <v>0.0003402999999906342</v>
       </c>
     </row>
     <row r="26">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0003617999999967481</v>
+        <v>0.0004160000000013042</v>
       </c>
     </row>
     <row r="27">
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0005092999999973813</v>
+        <v>0.0006209999999953197</v>
       </c>
     </row>
     <row r="28">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.000336700000001855</v>
+        <v>0.0006853000000006659</v>
       </c>
     </row>
     <row r="29">
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0002905999999995856</v>
+        <v>0.0005409999999983484</v>
       </c>
     </row>
     <row r="30">
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.000339400000001433</v>
+        <v>0.0004346000000055028</v>
       </c>
     </row>
     <row r="31">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003171000000001811</v>
+        <v>0.0003293000000041957</v>
       </c>
     </row>
     <row r="32">
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0002947000000013134</v>
+        <v>0.0004648999999972148</v>
       </c>
     </row>
     <row r="33">
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.0002875000000024386</v>
+        <v>0.000340199999996571</v>
       </c>
     </row>
     <row r="34">
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0003113999999975192</v>
+        <v>0.0004473999999987655</v>
       </c>
     </row>
     <row r="35">
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0002825999999984674</v>
+        <v>0.0004547000000059143</v>
       </c>
     </row>
     <row r="36">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0002879000000000076</v>
+        <v>0.0003434000000055448</v>
       </c>
     </row>
     <row r="37">
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0008043999999998164</v>
+        <v>0.0003355999999996584</v>
       </c>
     </row>
     <row r="38">
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003479999999989047</v>
+        <v>0.0003413000000023203</v>
       </c>
     </row>
     <row r="39">
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0002983000000007507</v>
+        <v>0.0003571999999962827</v>
       </c>
     </row>
     <row r="40">
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0003963999999996304</v>
+        <v>0.0004546999999917034</v>
       </c>
     </row>
     <row r="41">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.000298900000000657</v>
+        <v>0.000358999999988896</v>
       </c>
     </row>
     <row r="42">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.0002792000000013672</v>
+        <v>0.000346000000007507</v>
       </c>
     </row>
     <row r="43">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.0003236000000015338</v>
+        <v>0.002940899999998692</v>
       </c>
     </row>
     <row r="44">
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0002944000000013602</v>
+        <v>0.0003314000000074202</v>
       </c>
     </row>
     <row r="45">
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.0002905000000019697</v>
+        <v>0.000313099999999622</v>
       </c>
     </row>
     <row r="46">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003209999999995716</v>
+        <v>0.0003846999999979062</v>
       </c>
     </row>
     <row r="47">
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0002950000000012665</v>
+        <v>0.0003178999999988719</v>
       </c>
     </row>
     <row r="48">
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.0002980000000007976</v>
+        <v>0.000309000000001447</v>
       </c>
     </row>
     <row r="49">
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0007553999999991845</v>
+        <v>0.0003310000000027458</v>
       </c>
     </row>
     <row r="50">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003004999999980384</v>
+        <v>0.0003029000000083215</v>
       </c>
     </row>
     <row r="51">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003141999999982659</v>
+        <v>0.0003039000000057968</v>
       </c>
     </row>
     <row r="52">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.0006467999999983931</v>
+        <v>0.001587999999998146</v>
       </c>
     </row>
     <row r="53">
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003030000000023847</v>
+        <v>0.0003118999999998096</v>
       </c>
     </row>
     <row r="54">
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003077000000004659</v>
+        <v>0.0003001999999980853</v>
       </c>
     </row>
     <row r="55">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003045999999997662</v>
+        <v>0.0003077000000075714</v>
       </c>
     </row>
     <row r="56">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003241999999978873</v>
+        <v>0.0003324999999989586</v>
       </c>
     </row>
     <row r="57">
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002990999999994415</v>
+        <v>0.0002947999999918238</v>
       </c>
     </row>
     <row r="58">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002965999999986479</v>
+        <v>0.0002994999999970105</v>
       </c>
     </row>
     <row r="59">
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003202000000008809</v>
+        <v>0.0003416999999927839</v>
       </c>
     </row>
     <row r="60">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0002986000000007039</v>
+        <v>0.0003527999999874964</v>
       </c>
     </row>
     <row r="61">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.000291499999999445</v>
+        <v>0.0003212000000019088</v>
       </c>
     </row>
     <row r="62">
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0004424000000007311</v>
+        <v>0.0003533000000004449</v>
       </c>
     </row>
     <row r="63">
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0002984999999995352</v>
+        <v>0.0003097000000025218</v>
       </c>
     </row>
     <row r="64">
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0002969999999997697</v>
+        <v>0.0003018000000025722</v>
       </c>
     </row>
     <row r="65">
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0002981999999995821</v>
+        <v>0.0007078999999947655</v>
       </c>
     </row>
     <row r="66">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003179000000024246</v>
+        <v>0.0003356999999937216</v>
       </c>
     </row>
     <row r="67">
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003033000000023378</v>
+        <v>0.0003127000000091584</v>
       </c>
     </row>
     <row r="68">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003029000000012161</v>
+        <v>0.0003087000000050466</v>
       </c>
     </row>
     <row r="69">
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003201999999973282</v>
+        <v>0.0003302000000076077</v>
       </c>
     </row>
     <row r="70">
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0002996000000017318</v>
+        <v>0.0003143999999934977</v>
       </c>
     </row>
     <row r="71">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0002911999999994919</v>
+        <v>0.0003138000000006969</v>
       </c>
     </row>
     <row r="72">
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.001533599999998358</v>
+        <v>0.0003190000000046211</v>
       </c>
     </row>
     <row r="73">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0003156000000004155</v>
+        <v>0.0002927000000028102</v>
       </c>
     </row>
     <row r="74">
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0002902999999996325</v>
+        <v>0.0003324000000048954</v>
       </c>
     </row>
     <row r="75">
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0002973999999973387</v>
+        <v>0.0003162000000003218</v>
       </c>
     </row>
     <row r="76">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003208000000007871</v>
+        <v>0.0003087999999991098</v>
       </c>
     </row>
     <row r="77">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0002955000000000041</v>
+        <v>0.0003048000000092088</v>
       </c>
     </row>
     <row r="78">
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0002968000000009852</v>
+        <v>0.0003310000000027458</v>
       </c>
     </row>
     <row r="79">
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003258999999999901</v>
+        <v>0.0003338999999868975</v>
       </c>
     </row>
     <row r="80">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0002919000000005667</v>
+        <v>0.0003169000000013966</v>
       </c>
     </row>
     <row r="81">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002894000000033259</v>
+        <v>0.0002960999999999103</v>
       </c>
     </row>
     <row r="82">
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0009377000000014846</v>
+        <v>0.0003422999999997955</v>
       </c>
     </row>
     <row r="83">
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003194999999998061</v>
+        <v>0.0003370000000018081</v>
       </c>
     </row>
     <row r="84">
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0002943000000001916</v>
+        <v>0.0003128999999972848</v>
       </c>
     </row>
     <row r="85">
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0004142999999992014</v>
+        <v>0.0006123999999942953</v>
       </c>
     </row>
     <row r="86">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003180000000000405</v>
+        <v>0.0003117000000116832</v>
       </c>
     </row>
     <row r="87">
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0002988000000030411</v>
+        <v>0.0003105999999917231</v>
       </c>
     </row>
     <row r="88">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002968000000009852</v>
+        <v>0.0002975999999961232</v>
       </c>
     </row>
     <row r="89">
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003506999999984828</v>
+        <v>0.0003181000000012091</v>
       </c>
     </row>
     <row r="90">
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0002986000000007039</v>
+        <v>0.0003095999999942478</v>
       </c>
     </row>
     <row r="91">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0002989999999982729</v>
+        <v>0.0003006000000027598</v>
       </c>
     </row>
     <row r="92">
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0007832000000007611</v>
+        <v>0.0003432000000032076</v>
       </c>
     </row>
     <row r="93">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003115999999998564</v>
+        <v>0.0003215000000125201</v>
       </c>
     </row>
     <row r="94">
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0002989999999982729</v>
+        <v>0.0003021999999930358</v>
       </c>
     </row>
     <row r="95">
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0003033000000023378</v>
+        <v>0.0004481999999939035</v>
       </c>
     </row>
     <row r="96">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003159000000003687</v>
+        <v>0.0003252000000060207</v>
       </c>
     </row>
     <row r="97">
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0002904000000008011</v>
+        <v>0.0003034000000070591</v>
       </c>
     </row>
     <row r="98">
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0002984999999995352</v>
+        <v>0.0002966999999927111</v>
       </c>
     </row>
     <row r="99">
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0004209999999993386</v>
+        <v>0.0003432999999972708</v>
       </c>
     </row>
     <row r="100">
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003038999999986913</v>
+        <v>0.0003071999999946229</v>
       </c>
     </row>
     <row r="101">
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0002996999999993477</v>
+        <v>0.0003135000000042965</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test1/d40/N, 0.0.xlsx
+++ b/tests/test1/d40/N, 0.0.xlsx
@@ -532,13 +532,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>40.00000000001145</v>
+        <v>40.00000000000434</v>
       </c>
       <c r="G2" t="n">
-        <v>98.78643070691614</v>
+        <v>98.78643070691787</v>
       </c>
       <c r="H2" t="n">
-        <v>11.58227239647328</v>
+        <v>11.58227239647063</v>
       </c>
       <c r="I2" t="n">
         <v>22.91574594830793</v>
@@ -547,16 +547,16 @@
         <v>38.28184535070894</v>
       </c>
       <c r="K2" t="n">
-        <v>22.91574594830845</v>
+        <v>22.91574594830814</v>
       </c>
       <c r="L2" t="n">
-        <v>38.2818453507245</v>
+        <v>38.28184535071675</v>
       </c>
       <c r="M2" t="n">
-        <v>4.450011911819182e-26</v>
+        <v>6.460189892199042e-27</v>
       </c>
       <c r="N2" t="n">
-        <v>1.780083834906539e-12</v>
+        <v>7.486172566382004e-13</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>0.0007209999999986394</v>
+        <v>0.0003031999999976165</v>
       </c>
     </row>
     <row r="3">
@@ -584,13 +584,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>40.00000000000166</v>
+        <v>40.00000000000266</v>
       </c>
       <c r="G3" t="n">
-        <v>75.06396084646386</v>
+        <v>75.06396084646201</v>
       </c>
       <c r="H3" t="n">
-        <v>11.64389392130645</v>
+        <v>11.64389392130706</v>
       </c>
       <c r="I3" t="n">
         <v>19.69542397878576</v>
@@ -602,13 +602,13 @@
         <v>19.69542397878585</v>
       </c>
       <c r="L3" t="n">
-        <v>43.53167591109652</v>
+        <v>43.53167591109825</v>
       </c>
       <c r="M3" t="n">
-        <v>9.272316907971194e-28</v>
+        <v>2.538778143811921e-27</v>
       </c>
       <c r="N3" t="n">
-        <v>2.404825761332928e-13</v>
+        <v>4.564812969320065e-13</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>0.001035200000004011</v>
+        <v>0.0002710999999990804</v>
       </c>
     </row>
     <row r="4">
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>40.00000000000064</v>
+        <v>39.99999999999986</v>
       </c>
       <c r="G4" t="n">
-        <v>78.47908238555827</v>
+        <v>78.47908238556677</v>
       </c>
       <c r="H4" t="n">
-        <v>3.31111478193484</v>
+        <v>3.311114781934555</v>
       </c>
       <c r="I4" t="n">
         <v>7.555476939874645</v>
@@ -651,16 +651,16 @@
         <v>38.51157200784191</v>
       </c>
       <c r="K4" t="n">
-        <v>7.555476939874683</v>
+        <v>7.555476939874633</v>
       </c>
       <c r="L4" t="n">
-        <v>38.51157200784153</v>
+        <v>38.51157200784009</v>
       </c>
       <c r="M4" t="n">
-        <v>2.337604146418529e-28</v>
+        <v>1.55930046172388e-28</v>
       </c>
       <c r="N4" t="n">
-        <v>1.92033926492628e-13</v>
+        <v>3.374026134582828e-13</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>0.001111800000003882</v>
+        <v>0.0002878000000023917</v>
       </c>
     </row>
     <row r="5">
@@ -688,13 +688,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.00000000000666</v>
+        <v>39.99999999998497</v>
       </c>
       <c r="G5" t="n">
-        <v>99.14362246342245</v>
+        <v>99.14362246342988</v>
       </c>
       <c r="H5" t="n">
-        <v>11.49777387141971</v>
+        <v>11.49777387141162</v>
       </c>
       <c r="I5" t="n">
         <v>22.79928386085001</v>
@@ -703,16 +703,16 @@
         <v>38.17369412214205</v>
       </c>
       <c r="K5" t="n">
-        <v>22.79928386085033</v>
+        <v>22.79928386084941</v>
       </c>
       <c r="L5" t="n">
-        <v>38.17369412214703</v>
+        <v>38.17369412212301</v>
       </c>
       <c r="M5" t="n">
-        <v>1.524990465381286e-26</v>
+        <v>8.014481202180595e-26</v>
       </c>
       <c r="N5" t="n">
-        <v>8.562858707472972e-13</v>
+        <v>2.363256340164832e-12</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>0.0003942000000023427</v>
+        <v>0.0002484999999978754</v>
       </c>
     </row>
     <row r="6">
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>39.99999999999988</v>
+        <v>39.99999999999949</v>
       </c>
       <c r="G6" t="n">
-        <v>174.0653710224624</v>
+        <v>174.0653710224619</v>
       </c>
       <c r="H6" t="n">
-        <v>9.566786990109126</v>
+        <v>9.566786990108486</v>
       </c>
       <c r="I6" t="n">
         <v>5.187802718568502</v>
@@ -755,16 +755,16 @@
         <v>26.0718196415876</v>
       </c>
       <c r="K6" t="n">
-        <v>5.187802718568476</v>
+        <v>5.187802718568464</v>
       </c>
       <c r="L6" t="n">
-        <v>26.07181964158736</v>
+        <v>26.07181964158776</v>
       </c>
       <c r="M6" t="n">
-        <v>2.647309764895638e-28</v>
+        <v>2.097918928640592e-28</v>
       </c>
       <c r="N6" t="n">
-        <v>1.586547574747714e-13</v>
+        <v>6.72887584105253e-14</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>0.001246900000012374</v>
+        <v>0.000248999999996613</v>
       </c>
     </row>
     <row r="7">
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>39.9999999999976</v>
+        <v>39.99999999999697</v>
       </c>
       <c r="G7" t="n">
-        <v>39.958770796153</v>
+        <v>39.95877079615438</v>
       </c>
       <c r="H7" t="n">
-        <v>13.44878767412741</v>
+        <v>13.44878767412651</v>
       </c>
       <c r="I7" t="n">
         <v>13.05313401373524</v>
@@ -810,13 +810,13 @@
         <v>13.05313401373514</v>
       </c>
       <c r="L7" t="n">
-        <v>51.07363174200599</v>
+        <v>51.07363174200423</v>
       </c>
       <c r="M7" t="n">
-        <v>1.623934677753886e-27</v>
+        <v>3.757671734444439e-27</v>
       </c>
       <c r="N7" t="n">
-        <v>4.109199745999937e-13</v>
+        <v>6.653994828321347e-13</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -824,7 +824,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>0.0007236000000006015</v>
+        <v>0.0003558000000012385</v>
       </c>
     </row>
     <row r="8">
@@ -844,13 +844,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>40.00000000000025</v>
+        <v>40.00000000000124</v>
       </c>
       <c r="G8" t="n">
-        <v>160.7148272584802</v>
+        <v>160.7148272584803</v>
       </c>
       <c r="H8" t="n">
-        <v>6.983757663614184</v>
+        <v>6.983757663614537</v>
       </c>
       <c r="I8" t="n">
         <v>7.610879869883244</v>
@@ -859,16 +859,16 @@
         <v>29.73534467829719</v>
       </c>
       <c r="K8" t="n">
-        <v>7.61087986988327</v>
+        <v>7.610879869883346</v>
       </c>
       <c r="L8" t="n">
-        <v>29.73534467829528</v>
+        <v>29.73534467829588</v>
       </c>
       <c r="M8" t="n">
-        <v>6.786592683150567e-29</v>
+        <v>9.940203806947916e-28</v>
       </c>
       <c r="N8" t="n">
-        <v>1.375466132445749e-13</v>
+        <v>2.498193195605624e-13</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>0.0003478000000001202</v>
+        <v>0.0002465000000029249</v>
       </c>
     </row>
     <row r="9">
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>39.99999999999919</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="G9" t="n">
-        <v>13.73549208731224</v>
+        <v>13.73549208731243</v>
       </c>
       <c r="H9" t="n">
-        <v>12.35902550688085</v>
+        <v>12.35902550688105</v>
       </c>
       <c r="I9" t="n">
         <v>5.176513718887975</v>
@@ -911,16 +911,16 @@
         <v>52.00243301911608</v>
       </c>
       <c r="K9" t="n">
-        <v>5.176513718887937</v>
+        <v>5.176513718887975</v>
       </c>
       <c r="L9" t="n">
-        <v>52.00243301911334</v>
+        <v>52.00243301911421</v>
       </c>
       <c r="M9" t="n">
-        <v>2.744261088940646e-28</v>
+        <v>6.598076219729718e-29</v>
       </c>
       <c r="N9" t="n">
-        <v>2.02202085430611e-13</v>
+        <v>1.288419531152458e-13</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>0.0003444999999970833</v>
+        <v>0.0002239000000017199</v>
       </c>
     </row>
     <row r="10">
@@ -948,13 +948,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>40.00000000000311</v>
+        <v>39.99999999999621</v>
       </c>
       <c r="G10" t="n">
-        <v>157.2172925025262</v>
+        <v>157.2172925025283</v>
       </c>
       <c r="H10" t="n">
-        <v>14.62248795385243</v>
+        <v>14.6224879538498</v>
       </c>
       <c r="I10" t="n">
         <v>20.58725291436772</v>
@@ -963,16 +963,16 @@
         <v>22.65229206771021</v>
       </c>
       <c r="K10" t="n">
-        <v>20.58725291436799</v>
+        <v>20.58725291436745</v>
       </c>
       <c r="L10" t="n">
-        <v>22.65229206771284</v>
+        <v>22.65229206770822</v>
       </c>
       <c r="M10" t="n">
-        <v>6.909936312074496e-27</v>
+        <v>9.280396184974944e-27</v>
       </c>
       <c r="N10" t="n">
-        <v>4.899232888218743e-13</v>
+        <v>4.7944116006508e-13</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>0.002821999999994773</v>
+        <v>0.0004297999999991475</v>
       </c>
     </row>
     <row r="11">
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>40.00000000000026</v>
+        <v>39.99999999999983</v>
       </c>
       <c r="G11" t="n">
-        <v>1.867347699426039</v>
+        <v>1.867347699425899</v>
       </c>
       <c r="H11" t="n">
-        <v>9.022495105784561</v>
+        <v>9.022495105784584</v>
       </c>
       <c r="I11" t="n">
         <v>1.809925286532582</v>
@@ -1015,16 +1015,16 @@
         <v>48.22894317908594</v>
       </c>
       <c r="K11" t="n">
-        <v>1.809925286532582</v>
+        <v>1.809925286532556</v>
       </c>
       <c r="L11" t="n">
-        <v>48.22894317908279</v>
+        <v>48.2289431790824</v>
       </c>
       <c r="M11" t="n">
-        <v>3.554881881650298e-29</v>
+        <v>6.22104329288802e-29</v>
       </c>
       <c r="N11" t="n">
-        <v>1.943641279230462e-13</v>
+        <v>2.09286447697173e-13</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>0.0003743999999983316</v>
+        <v>0.0002437999999997942</v>
       </c>
     </row>
     <row r="12">
@@ -1052,13 +1052,13 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>40.0000000000003</v>
+        <v>40.00000000000145</v>
       </c>
       <c r="G12" t="n">
-        <v>138.8377157880201</v>
+        <v>138.8377157880049</v>
       </c>
       <c r="H12" t="n">
-        <v>3.249023392313173</v>
+        <v>3.24902339231257</v>
       </c>
       <c r="I12" t="n">
         <v>6.190703086112159</v>
@@ -1067,16 +1067,16 @@
         <v>34.65047640795692</v>
       </c>
       <c r="K12" t="n">
-        <v>6.190703086112173</v>
+        <v>6.190703086112261</v>
       </c>
       <c r="L12" t="n">
-        <v>34.6504764079579</v>
+        <v>34.6504764079603</v>
       </c>
       <c r="M12" t="n">
-        <v>1.758589294483064e-28</v>
+        <v>1.550682566253213e-27</v>
       </c>
       <c r="N12" t="n">
-        <v>4.672722541241754e-13</v>
+        <v>6.16597520252471e-13</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>0.0004038000000008424</v>
+        <v>0.0002209000000021888</v>
       </c>
     </row>
     <row r="13">
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>39.99999999999989</v>
+        <v>39.99999999999969</v>
       </c>
       <c r="G13" t="n">
-        <v>32.44854399781213</v>
+        <v>32.44854399781263</v>
       </c>
       <c r="H13" t="n">
-        <v>3.233702897852162</v>
+        <v>3.233702897852058</v>
       </c>
       <c r="I13" t="n">
         <v>4.573663047849449</v>
@@ -1119,16 +1119,16 @@
         <v>40.78812565334459</v>
       </c>
       <c r="K13" t="n">
-        <v>4.573663047849462</v>
+        <v>4.573663047849436</v>
       </c>
       <c r="L13" t="n">
-        <v>40.78812565334951</v>
+        <v>40.78812565334918</v>
       </c>
       <c r="M13" t="n">
-        <v>1.976729773584332e-28</v>
+        <v>1.491973153359291e-28</v>
       </c>
       <c r="N13" t="n">
-        <v>8.74281719255292e-13</v>
+        <v>7.688513160286326e-13</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>0.0006644999999991796</v>
+        <v>0.0002107000000037829</v>
       </c>
     </row>
     <row r="14">
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>39.99999999999882</v>
+        <v>40.00000000000088</v>
       </c>
       <c r="G14" t="n">
-        <v>27.74931162834161</v>
+        <v>27.74931162834146</v>
       </c>
       <c r="H14" t="n">
-        <v>11.88059635818393</v>
+        <v>11.88059635818504</v>
       </c>
       <c r="I14" t="n">
         <v>8.875985220654171</v>
@@ -1171,16 +1171,16 @@
         <v>50.60676945916118</v>
       </c>
       <c r="K14" t="n">
-        <v>8.875985220654133</v>
+        <v>8.875985220654222</v>
       </c>
       <c r="L14" t="n">
-        <v>50.60676945915687</v>
+        <v>50.60676945916017</v>
       </c>
       <c r="M14" t="n">
-        <v>6.800058144823485e-28</v>
+        <v>2.399545270113951e-28</v>
       </c>
       <c r="N14" t="n">
-        <v>3.57497735792882e-13</v>
+        <v>9.585126768746953e-14</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>0.0003397999999918966</v>
+        <v>0.0002173999999968146</v>
       </c>
     </row>
     <row r="15">
@@ -1208,13 +1208,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>40.00000000000006</v>
+        <v>40.00000000000015</v>
       </c>
       <c r="G15" t="n">
-        <v>139.9864339032854</v>
+        <v>139.9864339032872</v>
       </c>
       <c r="H15" t="n">
-        <v>5.850494640418766</v>
+        <v>5.850494640418944</v>
       </c>
       <c r="I15" t="n">
         <v>10.07090146044474</v>
@@ -1223,16 +1223,16 @@
         <v>32.50749114378547</v>
       </c>
       <c r="K15" t="n">
-        <v>10.07090146044474</v>
+        <v>10.07090146044475</v>
       </c>
       <c r="L15" t="n">
-        <v>32.5074911437868</v>
+        <v>32.50749114378658</v>
       </c>
       <c r="M15" t="n">
-        <v>1.629320862423053e-28</v>
+        <v>4.255085888642023e-29</v>
       </c>
       <c r="N15" t="n">
-        <v>2.013345471330399e-13</v>
+        <v>6.937088296058497e-14</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>0.0003401000000025078</v>
+        <v>0.0002551999999980126</v>
       </c>
     </row>
     <row r="16">
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>39.99999999999267</v>
+        <v>39.999999999994</v>
       </c>
       <c r="G16" t="n">
-        <v>92.50980187908419</v>
+        <v>92.50980187908445</v>
       </c>
       <c r="H16" t="n">
-        <v>12.27798062494875</v>
+        <v>12.27798062494924</v>
       </c>
       <c r="I16" t="n">
         <v>23.38916312472101</v>
@@ -1275,16 +1275,16 @@
         <v>40.02752228674725</v>
       </c>
       <c r="K16" t="n">
-        <v>23.38916312472066</v>
+        <v>23.38916312472072</v>
       </c>
       <c r="L16" t="n">
-        <v>40.02752228673693</v>
+        <v>40.0275222867383</v>
       </c>
       <c r="M16" t="n">
-        <v>1.749567435162209e-26</v>
+        <v>1.164008368853706e-26</v>
       </c>
       <c r="N16" t="n">
-        <v>1.088109803179152e-12</v>
+        <v>9.204576347638365e-13</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>0.0003370999999958713</v>
+        <v>0.00023209999999807</v>
       </c>
     </row>
     <row r="17">
@@ -1312,13 +1312,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>39.99999999999994</v>
+        <v>40.00000000000067</v>
       </c>
       <c r="G17" t="n">
-        <v>152.7871855083425</v>
+        <v>152.7871855083449</v>
       </c>
       <c r="H17" t="n">
-        <v>5.146751099051748</v>
+        <v>5.146751099052237</v>
       </c>
       <c r="I17" t="n">
         <v>7.139827121650356</v>
@@ -1327,16 +1327,16 @@
         <v>32.14036686491941</v>
       </c>
       <c r="K17" t="n">
-        <v>7.139827121650356</v>
+        <v>7.139827121650407</v>
       </c>
       <c r="L17" t="n">
-        <v>32.14036686492306</v>
+        <v>32.14036686492315</v>
       </c>
       <c r="M17" t="n">
-        <v>9.075721167546591e-29</v>
+        <v>2.876222613335241e-28</v>
       </c>
       <c r="N17" t="n">
-        <v>3.440641814774464e-13</v>
+        <v>3.499713231474822e-13</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>0.0003324999999989586</v>
+        <v>0.0002434999999962884</v>
       </c>
     </row>
     <row r="18">
@@ -1364,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>39.99999999999978</v>
+        <v>39.99999999999838</v>
       </c>
       <c r="G18" t="n">
-        <v>40.19239424763682</v>
+        <v>40.1923942476379</v>
       </c>
       <c r="H18" t="n">
-        <v>9.277960096808084</v>
+        <v>9.277960096807284</v>
       </c>
       <c r="I18" t="n">
         <v>10.31962125775608</v>
@@ -1379,16 +1379,16 @@
         <v>46.64286093130009</v>
       </c>
       <c r="K18" t="n">
-        <v>10.31962125775607</v>
+        <v>10.319621257756</v>
       </c>
       <c r="L18" t="n">
-        <v>46.64286093129744</v>
+        <v>46.64286093129513</v>
       </c>
       <c r="M18" t="n">
-        <v>4.066569425221174e-29</v>
+        <v>1.089894467805966e-27</v>
       </c>
       <c r="N18" t="n">
-        <v>1.071030530549988e-13</v>
+        <v>4.448015800131574e-13</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>0.0003208999999912976</v>
+        <v>0.0003591999999983386</v>
       </c>
     </row>
     <row r="19">
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>39.99999999999998</v>
+        <v>39.99999999999787</v>
       </c>
       <c r="G19" t="n">
-        <v>53.03970048368009</v>
+        <v>53.03970048367896</v>
       </c>
       <c r="H19" t="n">
-        <v>9.367041067263459</v>
+        <v>9.36704106726296</v>
       </c>
       <c r="I19" t="n">
         <v>12.95212497878583</v>
@@ -1431,16 +1431,16 @@
         <v>45.29448328127268</v>
       </c>
       <c r="K19" t="n">
-        <v>12.95212497878583</v>
+        <v>12.95212497878573</v>
       </c>
       <c r="L19" t="n">
-        <v>45.29448328127604</v>
+        <v>45.29448328127366</v>
       </c>
       <c r="M19" t="n">
-        <v>3.635674651687804e-29</v>
+        <v>1.46773532234804e-27</v>
       </c>
       <c r="N19" t="n">
-        <v>1.506835940272416e-13</v>
+        <v>2.363701202210343e-13</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>0.0003685999999873957</v>
+        <v>0.0002543999999957691</v>
       </c>
     </row>
     <row r="20">
@@ -1468,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>40.0000000000009</v>
+        <v>40.0000000000047</v>
       </c>
       <c r="G20" t="n">
-        <v>117.067363513126</v>
+        <v>117.0673635131252</v>
       </c>
       <c r="H20" t="n">
-        <v>9.065440484818367</v>
+        <v>9.065440484819476</v>
       </c>
       <c r="I20" t="n">
         <v>18.50855438297455</v>
@@ -1483,16 +1483,16 @@
         <v>34.20258136458548</v>
       </c>
       <c r="K20" t="n">
-        <v>18.5085543829746</v>
+        <v>18.50855438297481</v>
       </c>
       <c r="L20" t="n">
-        <v>34.20258136458922</v>
+        <v>34.20258136459277</v>
       </c>
       <c r="M20" t="n">
-        <v>3.509099311962377e-28</v>
+        <v>9.409125998568037e-27</v>
       </c>
       <c r="N20" t="n">
-        <v>2.776108220361224e-13</v>
+        <v>8.26754889036146e-13</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>0.0003346000000021832</v>
+        <v>0.0003221999999993841</v>
       </c>
     </row>
     <row r="21">
@@ -1520,13 +1520,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>39.99999999999872</v>
+        <v>39.99999999999989</v>
       </c>
       <c r="G21" t="n">
-        <v>17.55604831490109</v>
+        <v>17.55604831490052</v>
       </c>
       <c r="H21" t="n">
-        <v>12.13499660009768</v>
+        <v>12.13499660009901</v>
       </c>
       <c r="I21" t="n">
         <v>6.192815573298068</v>
@@ -1535,16 +1535,16 @@
         <v>51.56829656334563</v>
       </c>
       <c r="K21" t="n">
-        <v>6.192815573298004</v>
+        <v>6.192815573298056</v>
       </c>
       <c r="L21" t="n">
-        <v>51.56829656334273</v>
+        <v>51.5682965633455</v>
       </c>
       <c r="M21" t="n">
-        <v>5.283847160452942e-28</v>
+        <v>2.227187360700603e-28</v>
       </c>
       <c r="N21" t="n">
-        <v>2.362072875294861e-13</v>
+        <v>1.743223593348629e-13</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>0.0003430999999949336</v>
+        <v>0.0002414000000001693</v>
       </c>
     </row>
     <row r="22">
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>39.99999999999567</v>
+        <v>40.00000000000009</v>
       </c>
       <c r="G22" t="n">
-        <v>105.86354419391</v>
+        <v>105.8635441939093</v>
       </c>
       <c r="H22" t="n">
-        <v>13.77256473491118</v>
+        <v>13.77256473491305</v>
       </c>
       <c r="I22" t="n">
         <v>27.44393404367798</v>
@@ -1587,16 +1587,16 @@
         <v>37.03369549700079</v>
       </c>
       <c r="K22" t="n">
-        <v>27.44393404367777</v>
+        <v>27.44393404367797</v>
       </c>
       <c r="L22" t="n">
-        <v>37.03369549699244</v>
+        <v>37.033695496997</v>
       </c>
       <c r="M22" t="n">
-        <v>6.302913299859361e-27</v>
+        <v>3.070125261425257e-29</v>
       </c>
       <c r="N22" t="n">
-        <v>7.73869024081046e-13</v>
+        <v>1.78309034239566e-13</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>0.000705899999999815</v>
+        <v>0.0002015999999969154</v>
       </c>
     </row>
     <row r="23">
@@ -1624,13 +1624,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>40.00000000000006</v>
+        <v>39.99999999999994</v>
       </c>
       <c r="G23" t="n">
-        <v>8.770478545642815</v>
+        <v>8.770478545642714</v>
       </c>
       <c r="H23" t="n">
-        <v>6.469315917477985</v>
+        <v>6.469315917478013</v>
       </c>
       <c r="I23" t="n">
         <v>2.990958436833284</v>
@@ -1639,16 +1639,16 @@
         <v>45.11750226817573</v>
       </c>
       <c r="K23" t="n">
-        <v>2.990958436833297</v>
+        <v>2.990958436833284</v>
       </c>
       <c r="L23" t="n">
-        <v>45.11750226817801</v>
+        <v>45.11750226817793</v>
       </c>
       <c r="M23" t="n">
-        <v>3.904983885146161e-29</v>
+        <v>2.962401568041915e-29</v>
       </c>
       <c r="N23" t="n">
-        <v>1.570920901238248e-13</v>
+        <v>1.6776779249944e-13</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -1656,7 +1656,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>0.000339299999993159</v>
+        <v>0.0002008000000017773</v>
       </c>
     </row>
     <row r="24">
@@ -1676,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>40.00000000000163</v>
+        <v>39.99999999999758</v>
       </c>
       <c r="G24" t="n">
-        <v>37.52289672459115</v>
+        <v>37.52289672459303</v>
       </c>
       <c r="H24" t="n">
-        <v>8.780172741161113</v>
+        <v>8.780172741159152</v>
       </c>
       <c r="I24" t="n">
         <v>9.419044849063178</v>
@@ -1691,16 +1691,16 @@
         <v>46.36511176493712</v>
       </c>
       <c r="K24" t="n">
-        <v>9.419044849063255</v>
+        <v>9.419044849063077</v>
       </c>
       <c r="L24" t="n">
-        <v>46.36511176494248</v>
+        <v>46.36511176493624</v>
       </c>
       <c r="M24" t="n">
-        <v>1.003176894632375e-27</v>
+        <v>2.396852177779367e-27</v>
       </c>
       <c r="N24" t="n">
-        <v>4.325445838557682e-13</v>
+        <v>4.46477027325266e-13</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>0.0005697999999938475</v>
+        <v>0.0002470999999957257</v>
       </c>
     </row>
     <row r="25">
@@ -1728,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>40.00000000000322</v>
+        <v>40.00000000000978</v>
       </c>
       <c r="G25" t="n">
-        <v>93.11361909238549</v>
+        <v>93.1136190923833</v>
       </c>
       <c r="H25" t="n">
-        <v>14.36355124577923</v>
+        <v>14.36355124578229</v>
       </c>
       <c r="I25" t="n">
         <v>26.76285261071862</v>
@@ -1743,16 +1743,16 @@
         <v>40.82017006479759</v>
       </c>
       <c r="K25" t="n">
-        <v>26.76285261071874</v>
+        <v>26.76285261071895</v>
       </c>
       <c r="L25" t="n">
-        <v>40.82017006480232</v>
+        <v>40.82017006481024</v>
       </c>
       <c r="M25" t="n">
-        <v>3.195892673450309e-27</v>
+        <v>3.116231002193328e-26</v>
       </c>
       <c r="N25" t="n">
-        <v>4.897005603637479e-13</v>
+        <v>1.456824600391548e-12</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>0.0003402999999906342</v>
+        <v>0.000235799999998676</v>
       </c>
     </row>
     <row r="26">
@@ -1780,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>39.99999999999857</v>
+        <v>40.0000000000003</v>
       </c>
       <c r="G26" t="n">
-        <v>172.8031146004654</v>
+        <v>172.8031146004651</v>
       </c>
       <c r="H26" t="n">
-        <v>11.39414459939424</v>
+        <v>11.39414459939489</v>
       </c>
       <c r="I26" t="n">
         <v>6.902497117049264</v>
@@ -1795,16 +1795,16 @@
         <v>23.99227987179233</v>
       </c>
       <c r="K26" t="n">
-        <v>6.902497117049124</v>
+        <v>6.902497117049289</v>
       </c>
       <c r="L26" t="n">
-        <v>23.99227987179332</v>
+        <v>23.9922798717943</v>
       </c>
       <c r="M26" t="n">
-        <v>1.794138113299567e-27</v>
+        <v>1.319615243945944e-28</v>
       </c>
       <c r="N26" t="n">
-        <v>2.549413406154004e-13</v>
+        <v>1.543345219604249e-13</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>0.0004160000000013042</v>
+        <v>0.0002040999999977089</v>
       </c>
     </row>
     <row r="27">
@@ -1832,13 +1832,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>40.00000000000203</v>
+        <v>40.00000000000291</v>
       </c>
       <c r="G27" t="n">
-        <v>156.6223445928972</v>
+        <v>156.6223445928968</v>
       </c>
       <c r="H27" t="n">
-        <v>9.987323144071212</v>
+        <v>9.987323144071455</v>
       </c>
       <c r="I27" t="n">
         <v>12.65928260151178</v>
@@ -1847,16 +1847,16 @@
         <v>27.0400161198854</v>
       </c>
       <c r="K27" t="n">
-        <v>12.65928260151193</v>
+        <v>12.65928260151201</v>
       </c>
       <c r="L27" t="n">
-        <v>27.04001611988839</v>
+        <v>27.04001611988904</v>
       </c>
       <c r="M27" t="n">
-        <v>2.603950978308843e-27</v>
+        <v>5.357368581187074e-27</v>
       </c>
       <c r="N27" t="n">
-        <v>3.681707813172546e-13</v>
+        <v>4.982935942705133e-13</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>0.0006209999999953197</v>
+        <v>0.000240400000002694</v>
       </c>
     </row>
     <row r="28">
@@ -1884,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>40.0000000000007</v>
+        <v>40.00000000000002</v>
       </c>
       <c r="G28" t="n">
-        <v>55.42829147249491</v>
+        <v>55.42829147249574</v>
       </c>
       <c r="H28" t="n">
-        <v>9.23269775166381</v>
+        <v>9.232697751663446</v>
       </c>
       <c r="I28" t="n">
         <v>13.26276120110444</v>
@@ -1899,16 +1899,16 @@
         <v>44.8670960835456</v>
       </c>
       <c r="K28" t="n">
-        <v>13.26276120110448</v>
+        <v>13.26276120110445</v>
       </c>
       <c r="L28" t="n">
-        <v>44.86709608354386</v>
+        <v>44.86709608354276</v>
       </c>
       <c r="M28" t="n">
-        <v>1.828609695182236e-28</v>
+        <v>1.139178057528845e-28</v>
       </c>
       <c r="N28" t="n">
-        <v>1.3086840571747e-13</v>
+        <v>1.742170505971409e-13</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>0.0006853000000006659</v>
+        <v>0.0002473999999992316</v>
       </c>
     </row>
     <row r="29">
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>40.0000000000123</v>
+        <v>40.00000000000691</v>
       </c>
       <c r="G29" t="n">
-        <v>76.62985389339902</v>
+        <v>76.62985389340112</v>
       </c>
       <c r="H29" t="n">
-        <v>12.7750048859399</v>
+        <v>12.77500488593743</v>
       </c>
       <c r="I29" t="n">
         <v>21.4548724568795</v>
@@ -1951,16 +1951,16 @@
         <v>43.97582692503995</v>
       </c>
       <c r="K29" t="n">
-        <v>21.45487245687995</v>
+        <v>21.45487245687978</v>
       </c>
       <c r="L29" t="n">
-        <v>43.97582692505906</v>
+        <v>43.97582692505189</v>
       </c>
       <c r="M29" t="n">
-        <v>4.618518699194074e-26</v>
+        <v>1.397849576265596e-26</v>
       </c>
       <c r="N29" t="n">
-        <v>1.924906099304659e-12</v>
+        <v>1.075127752540013e-12</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>0.0005409999999983484</v>
+        <v>0.0002281000000010636</v>
       </c>
     </row>
     <row r="30">
@@ -1988,13 +1988,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>40.00000000000009</v>
+        <v>39.99999999999702</v>
       </c>
       <c r="G30" t="n">
-        <v>131.2224736120416</v>
+        <v>131.222473612044</v>
       </c>
       <c r="H30" t="n">
-        <v>9.734875227931738</v>
+        <v>9.734875227930946</v>
       </c>
       <c r="I30" t="n">
         <v>18.54236195781179</v>
@@ -2003,16 +2003,16 @@
         <v>31.31086349853181</v>
       </c>
       <c r="K30" t="n">
-        <v>18.54236195781179</v>
+        <v>18.54236195781164</v>
       </c>
       <c r="L30" t="n">
-        <v>31.31086349853282</v>
+        <v>31.31086349852983</v>
       </c>
       <c r="M30" t="n">
-        <v>6.167181446196349e-29</v>
+        <v>4.213342957455978e-27</v>
       </c>
       <c r="N30" t="n">
-        <v>7.027467124777083e-14</v>
+        <v>3.973849127839627e-13</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>0.0004346000000055028</v>
+        <v>0.0002659000000022615</v>
       </c>
     </row>
     <row r="31">
@@ -2040,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>40.00000000000061</v>
+        <v>39.99999999999773</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4767974026135</v>
+        <v>155.4767974026169</v>
       </c>
       <c r="H31" t="n">
-        <v>6.418871582731443</v>
+        <v>6.418871582731231</v>
       </c>
       <c r="I31" t="n">
         <v>8.182083613794248</v>
@@ -2055,16 +2055,16 @@
         <v>30.68820409084247</v>
       </c>
       <c r="K31" t="n">
-        <v>8.182083613794287</v>
+        <v>8.182083613794083</v>
       </c>
       <c r="L31" t="n">
-        <v>30.68820409084337</v>
+        <v>30.68820409084049</v>
       </c>
       <c r="M31" t="n">
-        <v>3.118600923447761e-28</v>
+        <v>3.063931149055715e-27</v>
       </c>
       <c r="N31" t="n">
-        <v>1.211789221587639e-13</v>
+        <v>3.1209574664277e-13</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>0.0003293000000041957</v>
+        <v>0.0002642999999977746</v>
       </c>
     </row>
     <row r="32">
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>40.00000000000004</v>
+        <v>39.99999999999987</v>
       </c>
       <c r="G32" t="n">
-        <v>115.9458364922996</v>
+        <v>115.9458364922999</v>
       </c>
       <c r="H32" t="n">
-        <v>7.56898187562139</v>
+        <v>7.568981875621354</v>
       </c>
       <c r="I32" t="n">
         <v>15.61526795852661</v>
@@ -2107,16 +2107,16 @@
         <v>34.69011036954826</v>
       </c>
       <c r="K32" t="n">
-        <v>15.61526795852661</v>
+        <v>15.6152679585266</v>
       </c>
       <c r="L32" t="n">
-        <v>34.69011036954892</v>
+        <v>34.69011036954873</v>
       </c>
       <c r="M32" t="n">
-        <v>5.897872212737993e-29</v>
+        <v>5.089944512362925e-29</v>
       </c>
       <c r="N32" t="n">
-        <v>5.109988970287883e-14</v>
+        <v>4.538403039570772e-14</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>0.0004648999999972148</v>
+        <v>0.0002483999999967068</v>
       </c>
     </row>
     <row r="33">
@@ -2144,13 +2144,13 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>40.00000000000467</v>
+        <v>39.99999999999904</v>
       </c>
       <c r="G33" t="n">
-        <v>51.48968789889241</v>
+        <v>51.48968789889312</v>
       </c>
       <c r="H33" t="n">
-        <v>14.49726679823038</v>
+        <v>14.49726679822743</v>
       </c>
       <c r="I33" t="n">
         <v>17.04592559072634</v>
@@ -2159,16 +2159,16 @@
         <v>50.4312401368904</v>
       </c>
       <c r="K33" t="n">
-        <v>17.04592559072651</v>
+        <v>17.04592559072632</v>
       </c>
       <c r="L33" t="n">
-        <v>50.43124013689777</v>
+        <v>50.43124013688935</v>
       </c>
       <c r="M33" t="n">
-        <v>6.238009774595897e-27</v>
+        <v>3.659912482699056e-28</v>
       </c>
       <c r="N33" t="n">
-        <v>7.056489482861052e-13</v>
+        <v>1.476994671491515e-13</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2176,7 +2176,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>0.000340199999996571</v>
+        <v>0.0002236999999993827</v>
       </c>
     </row>
     <row r="34">
@@ -2196,13 +2196,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>40.00000000000041</v>
+        <v>39.99999999999944</v>
       </c>
       <c r="G34" t="n">
-        <v>154.6000681127476</v>
+        <v>154.600068112747</v>
       </c>
       <c r="H34" t="n">
-        <v>7.472533859703574</v>
+        <v>7.472533859703151</v>
       </c>
       <c r="I34" t="n">
         <v>9.72133225138751</v>
@@ -2211,16 +2211,16 @@
         <v>29.71000445935035</v>
       </c>
       <c r="K34" t="n">
-        <v>9.721332251387549</v>
+        <v>9.721332251387473</v>
       </c>
       <c r="L34" t="n">
-        <v>29.71000445934924</v>
+        <v>29.71000445934875</v>
       </c>
       <c r="M34" t="n">
-        <v>1.599696846742634e-28</v>
+        <v>2.464179486143956e-28</v>
       </c>
       <c r="N34" t="n">
-        <v>1.53475138817525e-13</v>
+        <v>1.7159371123467e-13</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>0.0004473999999987655</v>
+        <v>0.0002503000000046995</v>
       </c>
     </row>
     <row r="35">
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>40.00000000000025</v>
+        <v>39.99999999999577</v>
       </c>
       <c r="G35" t="n">
-        <v>44.73182293879141</v>
+        <v>44.73182293879339</v>
       </c>
       <c r="H35" t="n">
-        <v>8.399705052609624</v>
+        <v>8.399705052607764</v>
       </c>
       <c r="I35" t="n">
         <v>10.51069784481993</v>
@@ -2263,16 +2263,16 @@
         <v>45.30447558370837</v>
       </c>
       <c r="K35" t="n">
-        <v>10.51069784481994</v>
+        <v>10.51069784481975</v>
       </c>
       <c r="L35" t="n">
-        <v>45.30447558370842</v>
+        <v>45.30447558370198</v>
       </c>
       <c r="M35" t="n">
-        <v>4.928358972287912e-29</v>
+        <v>6.674829351265351e-27</v>
       </c>
       <c r="N35" t="n">
-        <v>2.554154736291475e-14</v>
+        <v>8.57908647597241e-13</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>0.0004547000000059143</v>
+        <v>0.000206699999999671</v>
       </c>
     </row>
     <row r="36">
@@ -2300,13 +2300,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>40.00000000000018</v>
+        <v>40.00000000000038</v>
       </c>
       <c r="G36" t="n">
-        <v>6.941102558653864</v>
+        <v>6.941102558653661</v>
       </c>
       <c r="H36" t="n">
-        <v>12.36120552629588</v>
+        <v>12.36120552629696</v>
       </c>
       <c r="I36" t="n">
         <v>3.254530440680533</v>
@@ -2315,16 +2315,16 @@
         <v>52.19254532706056</v>
       </c>
       <c r="K36" t="n">
-        <v>3.254530440680533</v>
+        <v>3.254530440680558</v>
       </c>
       <c r="L36" t="n">
-        <v>52.19254532705822</v>
+        <v>52.19254532705971</v>
       </c>
       <c r="M36" t="n">
-        <v>3.123987108116928e-29</v>
+        <v>2.060215635956422e-28</v>
       </c>
       <c r="N36" t="n">
-        <v>1.226260325542145e-13</v>
+        <v>2.103468550421919e-13</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>0.0003434000000055448</v>
+        <v>0.0002685000000042237</v>
       </c>
     </row>
     <row r="37">
@@ -2352,13 +2352,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>39.99999999999952</v>
+        <v>40.00000000000514</v>
       </c>
       <c r="G37" t="n">
-        <v>82.4498906803363</v>
+        <v>82.44989068032761</v>
       </c>
       <c r="H37" t="n">
-        <v>6.700195283578828</v>
+        <v>6.700195283580523</v>
       </c>
       <c r="I37" t="n">
         <v>13.37639473419913</v>
@@ -2367,16 +2367,16 @@
         <v>39.51197959750446</v>
       </c>
       <c r="K37" t="n">
-        <v>13.3763947341991</v>
+        <v>13.37639473419933</v>
       </c>
       <c r="L37" t="n">
-        <v>39.51197959750034</v>
+        <v>39.51197959750767</v>
       </c>
       <c r="M37" t="n">
-        <v>1.136484965194262e-28</v>
+        <v>1.183021600735866e-26</v>
       </c>
       <c r="N37" t="n">
-        <v>2.223975109619951e-13</v>
+        <v>9.931909287915264e-13</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>0.0003355999999996584</v>
+        <v>0.0002239999999957831</v>
       </c>
     </row>
     <row r="38">
@@ -2404,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>39.99999999999844</v>
+        <v>40.0000000000009</v>
       </c>
       <c r="G38" t="n">
-        <v>131.1312944872309</v>
+        <v>131.1312944872293</v>
       </c>
       <c r="H38" t="n">
-        <v>10.21937054844206</v>
+        <v>10.21937054844275</v>
       </c>
       <c r="I38" t="n">
         <v>19.54422612244915</v>
@@ -2419,16 +2419,16 @@
         <v>31.10945420982688</v>
       </c>
       <c r="K38" t="n">
-        <v>19.54422612244905</v>
+        <v>19.54422612244919</v>
       </c>
       <c r="L38" t="n">
-        <v>31.10945420982198</v>
+        <v>31.1094542098243</v>
       </c>
       <c r="M38" t="n">
-        <v>1.234513526173103e-27</v>
+        <v>5.499294547219626e-28</v>
       </c>
       <c r="N38" t="n">
-        <v>4.1915340040455e-13</v>
+        <v>2.246607987894798e-13</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>0.0003413000000023203</v>
+        <v>0.0001989999999949532</v>
       </c>
     </row>
     <row r="39">
@@ -2456,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>40.00000000000007</v>
+        <v>40.00000000000001</v>
       </c>
       <c r="G39" t="n">
-        <v>170.0093885143145</v>
+        <v>170.0093885143153</v>
       </c>
       <c r="H39" t="n">
-        <v>8.56917809165253</v>
+        <v>8.569178091652917</v>
       </c>
       <c r="I39" t="n">
         <v>6.186312769693502</v>
@@ -2474,13 +2474,13 @@
         <v>6.186312769693502</v>
       </c>
       <c r="L39" t="n">
-        <v>27.41620526036594</v>
+        <v>27.4162052603654</v>
       </c>
       <c r="M39" t="n">
-        <v>1.688568893783891e-28</v>
+        <v>1.427338937329286e-29</v>
       </c>
       <c r="N39" t="n">
-        <v>1.554250490604931e-13</v>
+        <v>7.306039217788388e-14</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>0.0003571999999962827</v>
+        <v>0.0002004000000042083</v>
       </c>
     </row>
     <row r="40">
@@ -2508,13 +2508,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>40.00000000001069</v>
+        <v>40.0000000000028</v>
       </c>
       <c r="G40" t="n">
-        <v>69.25916151301368</v>
+        <v>69.25916151301455</v>
       </c>
       <c r="H40" t="n">
-        <v>13.316494159092</v>
+        <v>13.3164941590885</v>
       </c>
       <c r="I40" t="n">
         <v>20.5252257742755</v>
@@ -2523,16 +2523,16 @@
         <v>45.96040818063756</v>
       </c>
       <c r="K40" t="n">
-        <v>20.52522577427592</v>
+        <v>20.52522577427563</v>
       </c>
       <c r="L40" t="n">
-        <v>45.9604081806491</v>
+        <v>45.96040818063877</v>
       </c>
       <c r="M40" t="n">
-        <v>3.223820040959941e-26</v>
+        <v>2.271623384221232e-27</v>
       </c>
       <c r="N40" t="n">
-        <v>1.388067664181263e-12</v>
+        <v>2.901133981806519e-13</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>0.0004546999999917034</v>
+        <v>0.0005663999999967473</v>
       </c>
     </row>
     <row r="41">
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>40.0000000000141</v>
+        <v>39.99999999999249</v>
       </c>
       <c r="G41" t="n">
-        <v>98.44004810616124</v>
+        <v>98.44004810616379</v>
       </c>
       <c r="H41" t="n">
-        <v>12.57478825539687</v>
+        <v>12.57478825538834</v>
       </c>
       <c r="I41" t="n">
         <v>24.59356450720858</v>
@@ -2575,16 +2575,16 @@
         <v>38.67756631959967</v>
       </c>
       <c r="K41" t="n">
-        <v>24.59356450720919</v>
+        <v>24.5935645072082</v>
       </c>
       <c r="L41" t="n">
-        <v>38.67756631961134</v>
+        <v>38.67756631958822</v>
       </c>
       <c r="M41" t="n">
-        <v>6.531637631835543e-26</v>
+        <v>1.901834875759563e-26</v>
       </c>
       <c r="N41" t="n">
-        <v>1.840020769672635e-12</v>
+        <v>1.176114516985972e-12</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>0.000358999999988896</v>
+        <v>0.000244500000000869</v>
       </c>
     </row>
     <row r="42">
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>39.99999999999812</v>
+        <v>39.99999999999889</v>
       </c>
       <c r="G42" t="n">
-        <v>73.3836650544599</v>
+        <v>73.38366505445973</v>
       </c>
       <c r="H42" t="n">
-        <v>3.664392481341774</v>
+        <v>3.664392481341904</v>
       </c>
       <c r="I42" t="n">
         <v>7.93230154723043</v>
@@ -2627,16 +2627,16 @@
         <v>39.01438474191893</v>
       </c>
       <c r="K42" t="n">
-        <v>7.932301547230328</v>
+        <v>7.932301547230366</v>
       </c>
       <c r="L42" t="n">
-        <v>39.01438474191286</v>
+        <v>39.01438474191369</v>
       </c>
       <c r="M42" t="n">
-        <v>1.941450264001287e-27</v>
+        <v>9.229227430617855e-28</v>
       </c>
       <c r="N42" t="n">
-        <v>8.712314923024068e-13</v>
+        <v>7.287737847536643e-13</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>0.000346000000007507</v>
+        <v>0.0001966000000024337</v>
       </c>
     </row>
     <row r="43">
@@ -2664,13 +2664,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>40.00000000000104</v>
+        <v>39.99999999999978</v>
       </c>
       <c r="G43" t="n">
-        <v>45.16625227409537</v>
+        <v>45.16625227408726</v>
       </c>
       <c r="H43" t="n">
-        <v>3.553149848071071</v>
+        <v>3.55314984807145</v>
       </c>
       <c r="I43" t="n">
         <v>5.928428201044865</v>
@@ -2679,16 +2679,16 @@
         <v>40.60700288008367</v>
       </c>
       <c r="K43" t="n">
-        <v>5.928428201044928</v>
+        <v>5.928428201044865</v>
       </c>
       <c r="L43" t="n">
-        <v>40.60700288008373</v>
+        <v>40.6070028800832</v>
       </c>
       <c r="M43" t="n">
-        <v>4.739842508867063e-28</v>
+        <v>4.901428048942077e-29</v>
       </c>
       <c r="N43" t="n">
-        <v>3.599978333246074e-13</v>
+        <v>1.448283881941552e-13</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>0.002940899999998692</v>
+        <v>0.000210799999997846</v>
       </c>
     </row>
     <row r="44">
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>39.99999999999982</v>
+        <v>39.99999999999066</v>
       </c>
       <c r="G44" t="n">
-        <v>67.41722139252613</v>
+        <v>67.41722139252587</v>
       </c>
       <c r="H44" t="n">
-        <v>14.40857167691872</v>
+        <v>14.4085716769146</v>
       </c>
       <c r="I44" t="n">
         <v>21.26723767084115</v>
@@ -2731,16 +2731,16 @@
         <v>47.24055450089488</v>
       </c>
       <c r="K44" t="n">
-        <v>21.26723767084116</v>
+        <v>21.2672376708408</v>
       </c>
       <c r="L44" t="n">
-        <v>47.24055450089801</v>
+        <v>47.24055450088609</v>
       </c>
       <c r="M44" t="n">
-        <v>3.923835531488244e-28</v>
+        <v>2.440372549906238e-26</v>
       </c>
       <c r="N44" t="n">
-        <v>1.797917322703978e-13</v>
+        <v>1.173199115568781e-12</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>0.0003314000000074202</v>
+        <v>0.0001931000000041649</v>
       </c>
     </row>
     <row r="45">
@@ -2768,13 +2768,13 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>40.00000000000007</v>
+        <v>40.00000000000037</v>
       </c>
       <c r="G45" t="n">
-        <v>20.70982195016015</v>
+        <v>20.70982195016057</v>
       </c>
       <c r="H45" t="n">
-        <v>10.30879847135385</v>
+        <v>10.30879847135371</v>
       </c>
       <c r="I45" t="n">
         <v>6.462352581508514</v>
@@ -2783,16 +2783,16 @@
         <v>49.26789962097028</v>
       </c>
       <c r="K45" t="n">
-        <v>6.462352581508514</v>
+        <v>6.46235258150854</v>
       </c>
       <c r="L45" t="n">
-        <v>49.2678996209731</v>
+        <v>49.26789962097321</v>
       </c>
       <c r="M45" t="n">
-        <v>2.369921254433532e-29</v>
+        <v>6.921247299879746e-29</v>
       </c>
       <c r="N45" t="n">
-        <v>1.153706213742214e-13</v>
+        <v>1.304512316556804e-13</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -2800,7 +2800,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>0.000313099999999622</v>
+        <v>0.0001940000000004716</v>
       </c>
     </row>
     <row r="46">
@@ -2820,13 +2820,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39.99999999999926</v>
+        <v>40.00000000000068</v>
       </c>
       <c r="G46" t="n">
-        <v>150.2715867598146</v>
+        <v>150.2715867598152</v>
       </c>
       <c r="H46" t="n">
-        <v>4.257553252438043</v>
+        <v>4.25755325243841</v>
       </c>
       <c r="I46" t="n">
         <v>6.414402748801739</v>
@@ -2835,16 +2835,16 @@
         <v>33.15455134515927</v>
       </c>
       <c r="K46" t="n">
-        <v>6.414402748801688</v>
+        <v>6.414402748801789</v>
       </c>
       <c r="L46" t="n">
-        <v>33.15455134515864</v>
+        <v>33.15455134515966</v>
       </c>
       <c r="M46" t="n">
-        <v>3.759556899078648e-28</v>
+        <v>3.035115061075671e-28</v>
       </c>
       <c r="N46" t="n">
-        <v>3.351142391645357e-13</v>
+        <v>9.213464113458361e-14</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>0.0003846999999979062</v>
+        <v>0.0002333000000049879</v>
       </c>
     </row>
     <row r="47">
@@ -2872,13 +2872,13 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>40.00000000000004</v>
+        <v>40.00000000000021</v>
       </c>
       <c r="G47" t="n">
-        <v>178.0220724256082</v>
+        <v>178.0220724256079</v>
       </c>
       <c r="H47" t="n">
-        <v>9.594536722136873</v>
+        <v>9.594536722136636</v>
       </c>
       <c r="I47" t="n">
         <v>3.467189284049275</v>
@@ -2887,16 +2887,16 @@
         <v>25.92450555328367</v>
       </c>
       <c r="K47" t="n">
-        <v>3.467189284049275</v>
+        <v>3.4671892840493</v>
       </c>
       <c r="L47" t="n">
-        <v>25.92450555328558</v>
+        <v>25.92450555328603</v>
       </c>
       <c r="M47" t="n">
-        <v>4.147362195258681e-29</v>
+        <v>9.048790244200758e-29</v>
       </c>
       <c r="N47" t="n">
-        <v>1.694842789294616e-13</v>
+        <v>1.810785105788519e-13</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>0.0003178999999988719</v>
+        <v>0.0001956999999990217</v>
       </c>
     </row>
     <row r="48">
@@ -2924,13 +2924,13 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>40.00000000000242</v>
+        <v>40.0000000000026</v>
       </c>
       <c r="G48" t="n">
-        <v>141.089823145032</v>
+        <v>141.0898231450322</v>
       </c>
       <c r="H48" t="n">
-        <v>10.61800447263319</v>
+        <v>10.61800447263329</v>
       </c>
       <c r="I48" t="n">
         <v>18.46712300039825</v>
@@ -2939,16 +2939,16 @@
         <v>28.96028508939844</v>
       </c>
       <c r="K48" t="n">
-        <v>18.46712300039833</v>
+        <v>18.46712300039835</v>
       </c>
       <c r="L48" t="n">
-        <v>28.96028508939881</v>
+        <v>28.96028508939887</v>
       </c>
       <c r="M48" t="n">
-        <v>3.767636176082398e-27</v>
+        <v>3.969079482709249e-27</v>
       </c>
       <c r="N48" t="n">
-        <v>2.216238023074155e-13</v>
+        <v>2.492316816307177e-13</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -2956,7 +2956,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>0.000309000000001447</v>
+        <v>0.0001885000000001469</v>
       </c>
     </row>
     <row r="49">
@@ -2976,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>39.99999999999924</v>
+        <v>40.00000000000013</v>
       </c>
       <c r="G49" t="n">
-        <v>20.42792494085646</v>
+        <v>20.42792494085755</v>
       </c>
       <c r="H49" t="n">
-        <v>14.6937971332375</v>
+        <v>14.69379713323686</v>
       </c>
       <c r="I49" t="n">
         <v>7.737749257815719</v>
@@ -2991,16 +2991,16 @@
         <v>54.40266989146843</v>
       </c>
       <c r="K49" t="n">
-        <v>7.737749257815681</v>
+        <v>7.737749257815731</v>
       </c>
       <c r="L49" t="n">
-        <v>54.40266989146902</v>
+        <v>54.40266989146908</v>
       </c>
       <c r="M49" t="n">
-        <v>1.815144233509318e-28</v>
+        <v>2.386079808441033e-28</v>
       </c>
       <c r="N49" t="n">
-        <v>3.956385022816277e-14</v>
+        <v>1.412209913462106e-13</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>0.0003310000000027458</v>
+        <v>0.000205000000001121</v>
       </c>
     </row>
     <row r="50">
@@ -3028,13 +3028,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>40.00000000000029</v>
+        <v>40.00000000000031</v>
       </c>
       <c r="G50" t="n">
-        <v>3.148248767607548</v>
+        <v>3.148248767607561</v>
       </c>
       <c r="H50" t="n">
-        <v>13.69887920616276</v>
+        <v>13.69887920616257</v>
       </c>
       <c r="I50" t="n">
         <v>2.206985498596769</v>
@@ -3043,16 +3043,16 @@
         <v>53.83741801538552</v>
       </c>
       <c r="K50" t="n">
-        <v>2.206985498596781</v>
+        <v>2.206985498596769</v>
       </c>
       <c r="L50" t="n">
-        <v>53.83741801538643</v>
+        <v>53.83741801538623</v>
       </c>
       <c r="M50" t="n">
-        <v>3.931914808491996e-29</v>
+        <v>5.009151742325419e-29</v>
       </c>
       <c r="N50" t="n">
-        <v>9.30737793336857e-14</v>
+        <v>1.21706134213162e-13</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>0.0003029000000083215</v>
+        <v>0.0002044000000012147</v>
       </c>
     </row>
     <row r="51">
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>40.00000000000049</v>
+        <v>40.00000000000104</v>
       </c>
       <c r="G51" t="n">
-        <v>54.17360205406252</v>
+        <v>54.17360205406074</v>
       </c>
       <c r="H51" t="n">
-        <v>5.964741983542102</v>
+        <v>5.964741983542424</v>
       </c>
       <c r="I51" t="n">
         <v>9.522643035896857</v>
@@ -3095,16 +3095,16 @@
         <v>42.15412902103607</v>
       </c>
       <c r="K51" t="n">
-        <v>9.522643035896872</v>
+        <v>9.522643035896897</v>
       </c>
       <c r="L51" t="n">
-        <v>42.15412902103673</v>
+        <v>42.15412902103771</v>
       </c>
       <c r="M51" t="n">
-        <v>2.205642622023934e-28</v>
+        <v>8.216624712814436e-28</v>
       </c>
       <c r="N51" t="n">
-        <v>2.168158519172976e-13</v>
+        <v>4.415021322435514e-13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>0.0003039000000057968</v>
+        <v>0.0002430000000046562</v>
       </c>
     </row>
     <row r="52">
@@ -3132,13 +3132,13 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>40.00000000000141</v>
+        <v>39.99999999999672</v>
       </c>
       <c r="G52" t="n">
-        <v>89.02829619684105</v>
+        <v>89.02829619684725</v>
       </c>
       <c r="H52" t="n">
-        <v>5.736997253392392</v>
+        <v>5.736997253391272</v>
       </c>
       <c r="I52" t="n">
         <v>12.12114158782843</v>
@@ -3147,16 +3147,16 @@
         <v>38.3554914922189</v>
       </c>
       <c r="K52" t="n">
-        <v>12.12114158782851</v>
+        <v>12.12114158782826</v>
       </c>
       <c r="L52" t="n">
-        <v>38.35549149221733</v>
+        <v>38.35549149221172</v>
       </c>
       <c r="M52" t="n">
-        <v>9.433902448046204e-28</v>
+        <v>4.368734385161449e-27</v>
       </c>
       <c r="N52" t="n">
-        <v>3.147739011317049e-13</v>
+        <v>7.722055320820528e-13</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>0.001587999999998146</v>
+        <v>0.0002076999999971463</v>
       </c>
     </row>
     <row r="53">
@@ -3184,13 +3184,13 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>40.00000000000087</v>
+        <v>40.0000000000018</v>
       </c>
       <c r="G53" t="n">
-        <v>121.6316547906292</v>
+        <v>121.631654790632</v>
       </c>
       <c r="H53" t="n">
-        <v>3.536546186435206</v>
+        <v>3.536546186435433</v>
       </c>
       <c r="I53" t="n">
         <v>7.748476824274211</v>
@@ -3199,16 +3199,16 @@
         <v>35.48188845695773</v>
       </c>
       <c r="K53" t="n">
-        <v>7.748476824274249</v>
+        <v>7.748476824274313</v>
       </c>
       <c r="L53" t="n">
-        <v>35.48188845696193</v>
+        <v>35.48188845696255</v>
       </c>
       <c r="M53" t="n">
-        <v>8.200466158806938e-28</v>
+        <v>1.810565976540527e-27</v>
       </c>
       <c r="N53" t="n">
-        <v>5.637484777119925e-13</v>
+        <v>4.976303355373675e-13</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>0.0003118999999998096</v>
+        <v>0.0001943999999980406</v>
       </c>
     </row>
     <row r="54">
@@ -3236,13 +3236,13 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>39.99999999999962</v>
+        <v>40.00000000000038</v>
       </c>
       <c r="G54" t="n">
-        <v>148.1598613277652</v>
+        <v>148.1598613277631</v>
       </c>
       <c r="H54" t="n">
-        <v>3.313415778838536</v>
+        <v>3.313415778838518</v>
       </c>
       <c r="I54" t="n">
         <v>5.48941339683741</v>
@@ -3251,16 +3251,16 @@
         <v>34.1625217894218</v>
       </c>
       <c r="K54" t="n">
-        <v>5.489413396837372</v>
+        <v>5.489413396837435</v>
       </c>
       <c r="L54" t="n">
-        <v>34.16252178941902</v>
+        <v>34.16252178941988</v>
       </c>
       <c r="M54" t="n">
-        <v>1.526983353708878e-28</v>
+        <v>1.031454364145503e-28</v>
       </c>
       <c r="N54" t="n">
-        <v>3.05906972785509e-13</v>
+        <v>1.965989280243297e-13</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>0.0003001999999980853</v>
+        <v>0.0002715000000037548</v>
       </c>
     </row>
     <row r="55">
@@ -3288,13 +3288,13 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>40.00000000000016</v>
+        <v>39.99999999999901</v>
       </c>
       <c r="G55" t="n">
-        <v>152.3992332978241</v>
+        <v>152.3992332978257</v>
       </c>
       <c r="H55" t="n">
-        <v>9.733986483180471</v>
+        <v>9.733986483180395</v>
       </c>
       <c r="I55" t="n">
         <v>13.68504178555428</v>
@@ -3303,16 +3303,16 @@
         <v>27.82199853704786</v>
       </c>
       <c r="K55" t="n">
-        <v>13.6850417855543</v>
+        <v>13.68504178555425</v>
       </c>
       <c r="L55" t="n">
-        <v>27.82199853704656</v>
+        <v>27.8219985370453</v>
       </c>
       <c r="M55" t="n">
-        <v>4.57825696879205e-29</v>
+        <v>8.001177326047751e-28</v>
       </c>
       <c r="N55" t="n">
-        <v>9.435919841022781e-14</v>
+        <v>2.044894582722562e-13</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>0.0003077000000075714</v>
+        <v>0.0002484999999978754</v>
       </c>
     </row>
     <row r="56">
@@ -3340,13 +3340,13 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>40.0000000000023</v>
+        <v>39.99999999999608</v>
       </c>
       <c r="G56" t="n">
-        <v>75.63293408533606</v>
+        <v>75.63293408534345</v>
       </c>
       <c r="H56" t="n">
-        <v>7.35887396358183</v>
+        <v>7.358873963579744</v>
       </c>
       <c r="I56" t="n">
         <v>13.80604339457914</v>
@@ -3355,16 +3355,16 @@
         <v>40.75218031113259</v>
       </c>
       <c r="K56" t="n">
-        <v>13.80604339457924</v>
+        <v>13.80604339457897</v>
       </c>
       <c r="L56" t="n">
-        <v>40.75218031113886</v>
+        <v>40.75218031113065</v>
       </c>
       <c r="M56" t="n">
-        <v>2.31444355234111e-27</v>
+        <v>6.246358360833107e-27</v>
       </c>
       <c r="N56" t="n">
-        <v>6.387893784174313e-13</v>
+        <v>6.617144912594509e-13</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>0.0003324999999989586</v>
+        <v>0.0001954000000026213</v>
       </c>
     </row>
     <row r="57">
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>40.00000000000004</v>
+        <v>39.99999999999781</v>
       </c>
       <c r="G57" t="n">
-        <v>16.75949160093447</v>
+        <v>16.75949160093424</v>
       </c>
       <c r="H57" t="n">
-        <v>14.65987103987743</v>
+        <v>14.65987103987614</v>
       </c>
       <c r="I57" t="n">
         <v>6.567392205827259</v>
@@ -3407,16 +3407,16 @@
         <v>54.58643989705576</v>
       </c>
       <c r="K57" t="n">
-        <v>6.567392205827259</v>
+        <v>6.56739220582717</v>
       </c>
       <c r="L57" t="n">
-        <v>54.58643989705686</v>
+        <v>54.58643989705313</v>
       </c>
       <c r="M57" t="n">
-        <v>1.373477090637615e-29</v>
+        <v>1.476353217818707e-27</v>
       </c>
       <c r="N57" t="n">
-        <v>3.797251053082261e-14</v>
+        <v>3.297328607107933e-13</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -3424,7 +3424,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>0.0002947999999918238</v>
+        <v>0.0001918999999972471</v>
       </c>
     </row>
     <row r="58">
@@ -3444,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>39.99999999999986</v>
+        <v>39.99999999999979</v>
       </c>
       <c r="G58" t="n">
         <v>177.1545330976637</v>
       </c>
       <c r="H58" t="n">
-        <v>7.000947192175604</v>
+        <v>7.000947192175647</v>
       </c>
       <c r="I58" t="n">
         <v>3.134105438173524</v>
@@ -3459,16 +3459,16 @@
         <v>29.03628849697263</v>
       </c>
       <c r="K58" t="n">
-        <v>3.134105438173524</v>
+        <v>3.134105438173511</v>
       </c>
       <c r="L58" t="n">
-        <v>29.03628849697469</v>
+        <v>29.03628849697457</v>
       </c>
       <c r="M58" t="n">
-        <v>3.985776655183667e-29</v>
+        <v>4.416671428717035e-29</v>
       </c>
       <c r="N58" t="n">
-        <v>2.056729478988979e-13</v>
+        <v>1.815879794494347e-13</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>0.0002994999999970105</v>
+        <v>0.0001973000000035086</v>
       </c>
     </row>
     <row r="59">
@@ -3496,13 +3496,13 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>39.99999999999959</v>
+        <v>40.00000000000006</v>
       </c>
       <c r="G59" t="n">
-        <v>15.72293572239047</v>
+        <v>15.72293572239171</v>
       </c>
       <c r="H59" t="n">
-        <v>5.765725194621075</v>
+        <v>5.765725194620668</v>
       </c>
       <c r="I59" t="n">
         <v>3.955386232874815</v>
@@ -3511,16 +3511,16 @@
         <v>44.14878636314997</v>
       </c>
       <c r="K59" t="n">
-        <v>3.955386232874802</v>
+        <v>3.955386232874815</v>
       </c>
       <c r="L59" t="n">
-        <v>44.14878636314575</v>
+        <v>44.14878636314572</v>
       </c>
       <c r="M59" t="n">
-        <v>8.052346080404839e-29</v>
+        <v>1.265753397254273e-29</v>
       </c>
       <c r="N59" t="n">
-        <v>3.320825853776263e-13</v>
+        <v>1.950336511957418e-13</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -3528,7 +3528,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>0.0003416999999927839</v>
+        <v>0.0001956999999990217</v>
       </c>
     </row>
     <row r="60">
@@ -3548,13 +3548,13 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>40.00000000000151</v>
+        <v>39.99999999999997</v>
       </c>
       <c r="G60" t="n">
-        <v>65.71900494408411</v>
+        <v>65.71900494408825</v>
       </c>
       <c r="H60" t="n">
-        <v>8.414470990720583</v>
+        <v>8.41447099071968</v>
       </c>
       <c r="I60" t="n">
         <v>14.02411002723861</v>
@@ -3563,16 +3563,16 @@
         <v>42.81185243735961</v>
       </c>
       <c r="K60" t="n">
-        <v>14.02411002723866</v>
+        <v>14.02411002723864</v>
       </c>
       <c r="L60" t="n">
-        <v>42.81185243735872</v>
+        <v>42.81185243735599</v>
       </c>
       <c r="M60" t="n">
-        <v>8.370130975885701e-28</v>
+        <v>7.543351629168548e-28</v>
       </c>
       <c r="N60" t="n">
-        <v>2.254300852567526e-13</v>
+        <v>3.431053855697549e-13</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>0.0003527999999874964</v>
+        <v>0.0002422000000024127</v>
       </c>
     </row>
     <row r="61">
@@ -3600,13 +3600,13 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>39.99999999999981</v>
+        <v>40.00000000000041</v>
       </c>
       <c r="G61" t="n">
-        <v>166.3263208033966</v>
+        <v>166.3263208034001</v>
       </c>
       <c r="H61" t="n">
-        <v>4.894446966417465</v>
+        <v>4.894446966418516</v>
       </c>
       <c r="I61" t="n">
         <v>4.618349672385955</v>
@@ -3615,16 +3615,16 @@
         <v>31.77994929725002</v>
       </c>
       <c r="K61" t="n">
-        <v>4.618349672385942</v>
+        <v>4.618349672385968</v>
       </c>
       <c r="L61" t="n">
-        <v>31.77994929725394</v>
+        <v>31.77994929725322</v>
       </c>
       <c r="M61" t="n">
-        <v>4.416671428717035e-29</v>
+        <v>4.906814233611244e-28</v>
       </c>
       <c r="N61" t="n">
-        <v>2.277884681758447e-13</v>
+        <v>7.740567192679408e-13</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>0.0003212000000019088</v>
+        <v>0.0002023999999991588</v>
       </c>
     </row>
     <row r="62">
@@ -3652,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>39.99999999999886</v>
+        <v>39.99999999999846</v>
       </c>
       <c r="G62" t="n">
-        <v>54.15719940839378</v>
+        <v>54.15719940839177</v>
       </c>
       <c r="H62" t="n">
-        <v>5.243349796102071</v>
+        <v>5.24334979610216</v>
       </c>
       <c r="I62" t="n">
         <v>8.681791459262989</v>
@@ -3667,16 +3667,16 @@
         <v>41.54402924555519</v>
       </c>
       <c r="K62" t="n">
-        <v>8.681791459262939</v>
+        <v>8.681791459262913</v>
       </c>
       <c r="L62" t="n">
-        <v>41.54402924554948</v>
+        <v>41.54402924554932</v>
       </c>
       <c r="M62" t="n">
-        <v>6.824295975834738e-28</v>
+        <v>9.366575139681617e-28</v>
       </c>
       <c r="N62" t="n">
-        <v>5.246992405755514e-13</v>
+        <v>4.455665793690955e-13</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -3684,7 +3684,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>0.0003533000000004449</v>
+        <v>0.0001953000000014526</v>
       </c>
     </row>
     <row r="63">
@@ -3704,13 +3704,13 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>40.00000000000063</v>
+        <v>40.00000000000016</v>
       </c>
       <c r="G63" t="n">
-        <v>148.4045056643897</v>
+        <v>148.404505664391</v>
       </c>
       <c r="H63" t="n">
-        <v>5.176196789966427</v>
+        <v>5.176196789966468</v>
       </c>
       <c r="I63" t="n">
         <v>7.850039722804902</v>
@@ -3719,16 +3719,16 @@
         <v>32.39652408006119</v>
       </c>
       <c r="K63" t="n">
-        <v>7.85003972280494</v>
+        <v>7.850039722804915</v>
       </c>
       <c r="L63" t="n">
-        <v>32.39652408006228</v>
+        <v>32.39652408006167</v>
       </c>
       <c r="M63" t="n">
-        <v>2.566516994858131e-28</v>
+        <v>3.689536498379475e-29</v>
       </c>
       <c r="N63" t="n">
-        <v>1.027694031846531e-13</v>
+        <v>6.699081188797333e-14</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -3736,7 +3736,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>0.0003097000000025218</v>
+        <v>0.0001918999999972471</v>
       </c>
     </row>
     <row r="64">
@@ -3756,13 +3756,13 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>40.00000000000033</v>
+        <v>39.99999999999976</v>
       </c>
       <c r="G64" t="n">
-        <v>6.075847876177646</v>
+        <v>6.07584787617748</v>
       </c>
       <c r="H64" t="n">
-        <v>8.869290095587012</v>
+        <v>8.869290095586669</v>
       </c>
       <c r="I64" t="n">
         <v>2.741606634097171</v>
@@ -3771,16 +3771,16 @@
         <v>48.02196508739905</v>
       </c>
       <c r="K64" t="n">
-        <v>2.741606634097197</v>
+        <v>2.741606634097158</v>
       </c>
       <c r="L64" t="n">
-        <v>48.02196508739907</v>
+        <v>48.02196508739809</v>
       </c>
       <c r="M64" t="n">
-        <v>5.628562979279638e-29</v>
+        <v>8.348586237209031e-29</v>
       </c>
       <c r="N64" t="n">
-        <v>1.239935987031915e-14</v>
+        <v>1.316393466122445e-13</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>0.0003018000000025722</v>
+        <v>0.0002001000000007025</v>
       </c>
     </row>
     <row r="65">
@@ -3808,13 +3808,13 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>40</v>
+        <v>39.99999999999889</v>
       </c>
       <c r="G65" t="n">
-        <v>99.70938405010571</v>
+        <v>99.70938405010504</v>
       </c>
       <c r="H65" t="n">
-        <v>7.754974724464399</v>
+        <v>7.754974724464113</v>
       </c>
       <c r="I65" t="n">
         <v>16.10870148266759</v>
@@ -3823,16 +3823,16 @@
         <v>37.27781598912134</v>
       </c>
       <c r="K65" t="n">
-        <v>16.10870148266759</v>
+        <v>16.10870148266752</v>
       </c>
       <c r="L65" t="n">
-        <v>37.27781598912405</v>
+        <v>37.27781598912306</v>
       </c>
       <c r="M65" t="n">
-        <v>1.696648170787642e-29</v>
+        <v>5.703969564647977e-28</v>
       </c>
       <c r="N65" t="n">
-        <v>1.259029559341534e-13</v>
+        <v>1.963620357725002e-13</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>0.0007078999999947655</v>
+        <v>0.0002487000000002126</v>
       </c>
     </row>
     <row r="66">
@@ -3860,13 +3860,13 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>39.99999999999868</v>
+        <v>39.99999999999972</v>
       </c>
       <c r="G66" t="n">
-        <v>68.2377345780792</v>
+        <v>68.2377345780789</v>
       </c>
       <c r="H66" t="n">
-        <v>9.805178006154861</v>
+        <v>9.805178006155245</v>
       </c>
       <c r="I66" t="n">
         <v>16.16170376099309</v>
@@ -3875,16 +3875,16 @@
         <v>43.46372352112631</v>
       </c>
       <c r="K66" t="n">
-        <v>16.16170376099304</v>
+        <v>16.16170376099308</v>
       </c>
       <c r="L66" t="n">
-        <v>43.46372352112127</v>
+        <v>43.46372352112262</v>
       </c>
       <c r="M66" t="n">
-        <v>6.565759111714716e-28</v>
+        <v>7.08283283995476e-29</v>
       </c>
       <c r="N66" t="n">
-        <v>3.511330772966834e-13</v>
+        <v>1.802190927821901e-13</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>0.0003356999999937216</v>
+        <v>0.0001995999999948594</v>
       </c>
     </row>
     <row r="67">
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>40.00000000000041</v>
+        <v>40.0000000000003</v>
       </c>
       <c r="G67" t="n">
-        <v>39.35610902649896</v>
+        <v>39.35610902649429</v>
       </c>
       <c r="H67" t="n">
-        <v>3.376832634030882</v>
+        <v>3.376832634031272</v>
       </c>
       <c r="I67" t="n">
         <v>5.274021781485452</v>
@@ -3930,13 +3930,13 @@
         <v>5.274021781485478</v>
       </c>
       <c r="L67" t="n">
-        <v>40.68913562875265</v>
+        <v>40.68913562875311</v>
       </c>
       <c r="M67" t="n">
-        <v>8.860273780779908e-29</v>
+        <v>1.211891550562601e-28</v>
       </c>
       <c r="N67" t="n">
-        <v>1.799543640773325e-13</v>
+        <v>3.471379528675314e-13</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>0.0003127000000091584</v>
+        <v>0.0002028999999978964</v>
       </c>
     </row>
     <row r="68">
@@ -3964,13 +3964,13 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>40.00000000000006</v>
+        <v>40.00000000000108</v>
       </c>
       <c r="G68" t="n">
-        <v>27.77176406362936</v>
+        <v>27.77176406363242</v>
       </c>
       <c r="H68" t="n">
-        <v>4.604394728400867</v>
+        <v>4.604394728400552</v>
       </c>
       <c r="I68" t="n">
         <v>5.062672950318515</v>
@@ -3979,16 +3979,16 @@
         <v>42.43801944024082</v>
       </c>
       <c r="K68" t="n">
-        <v>5.062672950318527</v>
+        <v>5.062672950318579</v>
       </c>
       <c r="L68" t="n">
-        <v>42.43801944024001</v>
+        <v>42.43801944024056</v>
       </c>
       <c r="M68" t="n">
-        <v>2.693092334583559e-29</v>
+        <v>4.039638501875338e-28</v>
       </c>
       <c r="N68" t="n">
-        <v>7.962902915008989e-14</v>
+        <v>2.240960180959896e-13</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>0.0003087000000050466</v>
+        <v>0.0002121999999999957</v>
       </c>
     </row>
     <row r="69">
@@ -4016,13 +4016,13 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>39.99999999999778</v>
+        <v>40.00000000000745</v>
       </c>
       <c r="G69" t="n">
-        <v>98.2532573882971</v>
+        <v>98.25325738829643</v>
       </c>
       <c r="H69" t="n">
-        <v>13.30627932709535</v>
+        <v>13.30627932709934</v>
       </c>
       <c r="I69" t="n">
         <v>25.81153388271712</v>
@@ -4031,16 +4031,16 @@
         <v>38.98056188996542</v>
       </c>
       <c r="K69" t="n">
-        <v>25.81153388271705</v>
+        <v>25.81153388271749</v>
       </c>
       <c r="L69" t="n">
-        <v>38.98056188996627</v>
+        <v>38.98056188997659</v>
       </c>
       <c r="M69" t="n">
-        <v>1.818914562777735e-27</v>
+        <v>1.834507567394975e-26</v>
       </c>
       <c r="N69" t="n">
-        <v>2.547435739954393e-13</v>
+        <v>1.146420398933446e-12</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>0.0003302000000076077</v>
+        <v>0.0001979000000034148</v>
       </c>
     </row>
     <row r="70">
@@ -4068,13 +4068,13 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>39.99999999999985</v>
+        <v>39.99999999999915</v>
       </c>
       <c r="G70" t="n">
-        <v>46.68686459071459</v>
+        <v>46.68686459071778</v>
       </c>
       <c r="H70" t="n">
-        <v>3.520332613943152</v>
+        <v>3.520332613942794</v>
       </c>
       <c r="I70" t="n">
         <v>6.014679871228592</v>
@@ -4083,16 +4083,16 @@
         <v>40.50448663765381</v>
       </c>
       <c r="K70" t="n">
-        <v>6.014679871228579</v>
+        <v>6.014679871228541</v>
       </c>
       <c r="L70" t="n">
-        <v>40.50448663765179</v>
+        <v>40.50448663765062</v>
       </c>
       <c r="M70" t="n">
-        <v>1.357318536630113e-28</v>
+        <v>2.798122935632317e-28</v>
       </c>
       <c r="N70" t="n">
-        <v>4.616578512242292e-13</v>
+        <v>2.026600898995964e-13</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>0.0003143999999934977</v>
+        <v>0.0002387999999982071</v>
       </c>
     </row>
     <row r="71">
@@ -4120,13 +4120,13 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>40.00000000000117</v>
+        <v>40.00000000000693</v>
       </c>
       <c r="G71" t="n">
-        <v>53.32484910103774</v>
+        <v>53.32484910103679</v>
       </c>
       <c r="H71" t="n">
-        <v>12.7088125880805</v>
+        <v>12.70881258808321</v>
       </c>
       <c r="I71" t="n">
         <v>16.08018820099398</v>
@@ -4135,16 +4135,16 @@
         <v>48.38554590561366</v>
       </c>
       <c r="K71" t="n">
-        <v>16.08018820099403</v>
+        <v>16.08018820099424</v>
       </c>
       <c r="L71" t="n">
-        <v>48.3855459056119</v>
+        <v>48.38554590562018</v>
       </c>
       <c r="M71" t="n">
-        <v>4.855645479254155e-28</v>
+        <v>1.483328326965278e-26</v>
       </c>
       <c r="N71" t="n">
-        <v>1.962793076547751e-13</v>
+        <v>9.671501210002843e-13</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>0.0003138000000006969</v>
+        <v>0.0002154999999959273</v>
       </c>
     </row>
     <row r="72">
@@ -4172,13 +4172,13 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>39.99999999999936</v>
+        <v>39.99999999999871</v>
       </c>
       <c r="G72" t="n">
-        <v>166.9464969514127</v>
+        <v>166.9464969514136</v>
       </c>
       <c r="H72" t="n">
-        <v>13.46911553291037</v>
+        <v>13.4691155329105</v>
       </c>
       <c r="I72" t="n">
         <v>12.56035812480068</v>
@@ -4187,16 +4187,16 @@
         <v>22.16891449794234</v>
       </c>
       <c r="K72" t="n">
-        <v>12.56035812480063</v>
+        <v>12.5603581248006</v>
       </c>
       <c r="L72" t="n">
-        <v>22.16891449794288</v>
+        <v>22.16891449794198</v>
       </c>
       <c r="M72" t="n">
-        <v>3.654526298029889e-28</v>
+        <v>1.570342140295673e-27</v>
       </c>
       <c r="N72" t="n">
-        <v>9.942219586017186e-14</v>
+        <v>8.969838365440865e-14</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -4204,7 +4204,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>0.0003190000000046211</v>
+        <v>0.0001990000000020586</v>
       </c>
     </row>
     <row r="73">
@@ -4224,13 +4224,13 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>40.00000000000018</v>
+        <v>39.99999999999849</v>
       </c>
       <c r="G73" t="n">
-        <v>33.40354946733612</v>
+        <v>33.4035494673387</v>
       </c>
       <c r="H73" t="n">
-        <v>7.639191636505164</v>
+        <v>7.639191636503883</v>
       </c>
       <c r="I73" t="n">
         <v>7.859910572602633</v>
@@ -4239,16 +4239,16 @@
         <v>45.46351225095051</v>
       </c>
       <c r="K73" t="n">
-        <v>7.859910572602645</v>
+        <v>7.859910572602569</v>
       </c>
       <c r="L73" t="n">
-        <v>45.46351225095081</v>
+        <v>45.46351225094757</v>
       </c>
       <c r="M73" t="n">
-        <v>1.017988902472585e-28</v>
+        <v>1.19411714115435e-27</v>
       </c>
       <c r="N73" t="n">
-        <v>1.411913976746533e-13</v>
+        <v>4.758878327425488e-13</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>0.0002927000000028102</v>
+        <v>0.0001959999999954221</v>
       </c>
     </row>
     <row r="74">
@@ -4276,13 +4276,13 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>39.99999999999915</v>
+        <v>40.00000000000153</v>
       </c>
       <c r="G74" t="n">
-        <v>19.21287640595569</v>
+        <v>19.21287640595563</v>
       </c>
       <c r="H74" t="n">
-        <v>11.21211159934397</v>
+        <v>11.21211159934538</v>
       </c>
       <c r="I74" t="n">
         <v>6.377065963047959</v>
@@ -4291,16 +4291,16 @@
         <v>50.40064281793606</v>
       </c>
       <c r="K74" t="n">
-        <v>6.377065963047921</v>
+        <v>6.377065963048023</v>
       </c>
       <c r="L74" t="n">
-        <v>50.40064281793181</v>
+        <v>50.40064281793584</v>
       </c>
       <c r="M74" t="n">
-        <v>2.388772900775616e-28</v>
+        <v>1.078314170767257e-27</v>
       </c>
       <c r="N74" t="n">
-        <v>2.158793680240794e-13</v>
+        <v>2.81217554478546e-13</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>0.0003324000000048954</v>
+        <v>0.0002052999999975214</v>
       </c>
     </row>
     <row r="75">
@@ -4328,13 +4328,13 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>39.99999999999997</v>
+        <v>39.99999999999351</v>
       </c>
       <c r="G75" t="n">
-        <v>115.6841848414959</v>
+        <v>115.6841848414964</v>
       </c>
       <c r="H75" t="n">
-        <v>9.463451171627405</v>
+        <v>9.463451171625424</v>
       </c>
       <c r="I75" t="n">
         <v>19.35755665061183</v>
@@ -4343,16 +4343,16 @@
         <v>34.40684012736449</v>
       </c>
       <c r="K75" t="n">
-        <v>19.35755665061187</v>
+        <v>19.35755665061149</v>
       </c>
       <c r="L75" t="n">
-        <v>34.4068401273603</v>
+        <v>34.40684012735436</v>
       </c>
       <c r="M75" t="n">
-        <v>4.408592151713285e-28</v>
+        <v>1.722771166433103e-26</v>
       </c>
       <c r="N75" t="n">
-        <v>2.640706068252166e-13</v>
+        <v>1.143124675038077e-12</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>0.0003162000000003218</v>
+        <v>0.0002329000000003134</v>
       </c>
     </row>
     <row r="76">
@@ -4380,13 +4380,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>40.00000000000037</v>
+        <v>40.00000000000139</v>
       </c>
       <c r="G76" t="n">
-        <v>36.39641281744301</v>
+        <v>36.39641281744276</v>
       </c>
       <c r="H76" t="n">
-        <v>12.41457124932709</v>
+        <v>12.41457124932767</v>
       </c>
       <c r="I76" t="n">
         <v>11.46063555869591</v>
@@ -4395,16 +4395,16 @@
         <v>50.37958060079622</v>
       </c>
       <c r="K76" t="n">
-        <v>11.46063555869592</v>
+        <v>11.46063555869596</v>
       </c>
       <c r="L76" t="n">
-        <v>50.37958060079772</v>
+        <v>50.37958060079936</v>
       </c>
       <c r="M76" t="n">
-        <v>1.532369538378045e-28</v>
+        <v>8.561340531641134e-28</v>
       </c>
       <c r="N76" t="n">
-        <v>1.335882509608833e-13</v>
+        <v>3.239132092419462e-13</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>0.0003087999999991098</v>
+        <v>0.0002092000000004646</v>
       </c>
     </row>
     <row r="77">
@@ -4432,13 +4432,13 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>40.00000000000013</v>
+        <v>40.00000000000067</v>
       </c>
       <c r="G77" t="n">
-        <v>102.4092396214674</v>
+        <v>102.4092396214633</v>
       </c>
       <c r="H77" t="n">
-        <v>3.791570731073346</v>
+        <v>3.791570731073413</v>
       </c>
       <c r="I77" t="n">
         <v>8.76635558354894</v>
@@ -4447,16 +4447,16 @@
         <v>36.83621895458627</v>
       </c>
       <c r="K77" t="n">
-        <v>8.76635558354894</v>
+        <v>8.766355583548979</v>
       </c>
       <c r="L77" t="n">
-        <v>36.83621895459003</v>
+        <v>36.83621895459088</v>
       </c>
       <c r="M77" t="n">
-        <v>8.187000697134017e-29</v>
+        <v>2.509962055831876e-28</v>
       </c>
       <c r="N77" t="n">
-        <v>2.749544770796112e-13</v>
+        <v>3.067136351985896e-13</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>0.0003048000000092088</v>
+        <v>0.0002047000000047206</v>
       </c>
     </row>
     <row r="78">
@@ -4484,13 +4484,13 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>40.00000000000507</v>
+        <v>39.99999999999581</v>
       </c>
       <c r="G78" t="n">
-        <v>55.94936395614225</v>
+        <v>55.94936395614415</v>
       </c>
       <c r="H78" t="n">
-        <v>12.82784664862879</v>
+        <v>12.82784664862436</v>
       </c>
       <c r="I78" t="n">
         <v>16.84050940313982</v>
@@ -4499,16 +4499,16 @@
         <v>48.06403202229916</v>
       </c>
       <c r="K78" t="n">
-        <v>16.84050940313999</v>
+        <v>16.84050940313967</v>
       </c>
       <c r="L78" t="n">
-        <v>48.06403202230285</v>
+        <v>48.06403202228955</v>
       </c>
       <c r="M78" t="n">
-        <v>8.763322456734901e-27</v>
+        <v>5.087520729261801e-27</v>
       </c>
       <c r="N78" t="n">
-        <v>7.191725052529563e-13</v>
+        <v>7.314791563440798e-13</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>0.0003310000000027458</v>
+        <v>0.0001956999999990217</v>
       </c>
     </row>
     <row r="79">
@@ -4536,13 +4536,13 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>40.00000000000097</v>
+        <v>40.0000000000012</v>
       </c>
       <c r="G79" t="n">
-        <v>165.4396257238513</v>
+        <v>165.4396257238517</v>
       </c>
       <c r="H79" t="n">
-        <v>10.70634719908609</v>
+        <v>10.70634719908633</v>
       </c>
       <c r="I79" t="n">
         <v>10.0027312132912</v>
@@ -4551,16 +4551,16 @@
         <v>25.33373033689035</v>
       </c>
       <c r="K79" t="n">
-        <v>10.00273121329125</v>
+        <v>10.00273121329129</v>
       </c>
       <c r="L79" t="n">
-        <v>25.33373033689043</v>
+        <v>25.33373033689036</v>
       </c>
       <c r="M79" t="n">
-        <v>1.11063127878226e-27</v>
+        <v>1.181459607181807e-27</v>
       </c>
       <c r="N79" t="n">
-        <v>9.387466160535249e-14</v>
+        <v>6.27725521271615e-14</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -4568,7 +4568,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>0.0003338999999868975</v>
+        <v>0.0001991999999972904</v>
       </c>
     </row>
     <row r="80">
@@ -4588,13 +4588,13 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>40.00000000000014</v>
+        <v>39.99999999999991</v>
       </c>
       <c r="G80" t="n">
-        <v>8.672620950042891</v>
+        <v>8.672620950042852</v>
       </c>
       <c r="H80" t="n">
-        <v>11.17155616641247</v>
+        <v>11.17155616641232</v>
       </c>
       <c r="I80" t="n">
         <v>3.606923411926436</v>
@@ -4606,13 +4606,13 @@
         <v>3.606923411926436</v>
       </c>
       <c r="L80" t="n">
-        <v>50.73672563365864</v>
+        <v>50.73672563365825</v>
       </c>
       <c r="M80" t="n">
-        <v>2.666161411237723e-29</v>
+        <v>5.251530052437939e-29</v>
       </c>
       <c r="N80" t="n">
-        <v>9.486296474316032e-14</v>
+        <v>1.133649827304685e-13</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>0.0003169000000013966</v>
+        <v>0.0002323000000004072</v>
       </c>
     </row>
     <row r="81">
@@ -4640,13 +4640,13 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>39.9999999999981</v>
+        <v>40.00000000000612</v>
       </c>
       <c r="G81" t="n">
-        <v>90.1202627412723</v>
+        <v>90.12026274126676</v>
       </c>
       <c r="H81" t="n">
-        <v>8.616809111376696</v>
+        <v>8.616809111379215</v>
       </c>
       <c r="I81" t="n">
         <v>17.1232117211352</v>
@@ -4655,16 +4655,16 @@
         <v>39.09485972400436</v>
       </c>
       <c r="K81" t="n">
-        <v>17.12321172113514</v>
+        <v>17.1232117211355</v>
       </c>
       <c r="L81" t="n">
-        <v>39.09485972400145</v>
+        <v>39.09485972401097</v>
       </c>
       <c r="M81" t="n">
-        <v>2.156359032301055e-27</v>
+        <v>1.362543135759206e-26</v>
       </c>
       <c r="N81" t="n">
-        <v>4.294081554086877e-13</v>
+        <v>9.379224566044256e-13</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>0.0002960999999999103</v>
+        <v>0.0001987999999997214</v>
       </c>
     </row>
     <row r="82">
@@ -4692,13 +4692,13 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>40.00000000001337</v>
+        <v>39.99999999998786</v>
       </c>
       <c r="G82" t="n">
-        <v>93.94482897004278</v>
+        <v>93.94482897004747</v>
       </c>
       <c r="H82" t="n">
-        <v>11.39287640418094</v>
+        <v>11.39287640417153</v>
       </c>
       <c r="I82" t="n">
         <v>22.11552919085654</v>
@@ -4707,16 +4707,16 @@
         <v>39.33727404337365</v>
       </c>
       <c r="K82" t="n">
-        <v>22.11552919085712</v>
+        <v>22.11552919085599</v>
       </c>
       <c r="L82" t="n">
-        <v>39.33727404338602</v>
+        <v>39.33727404335781</v>
       </c>
       <c r="M82" t="n">
-        <v>5.988144667793234e-26</v>
+        <v>4.903986486659931e-26</v>
       </c>
       <c r="N82" t="n">
-        <v>1.833139758959872e-12</v>
+        <v>1.820706453221967e-12</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -4724,7 +4724,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>0.0003422999999997955</v>
+        <v>0.000202200000003927</v>
       </c>
     </row>
     <row r="83">
@@ -4744,13 +4744,13 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>40.00000000000187</v>
+        <v>39.9999999999982</v>
       </c>
       <c r="G83" t="n">
-        <v>63.97544120493919</v>
+        <v>63.97544120494487</v>
       </c>
       <c r="H83" t="n">
-        <v>7.090186520272416</v>
+        <v>7.090186520270936</v>
       </c>
       <c r="I83" t="n">
         <v>12.10179104400886</v>
@@ -4759,16 +4759,16 @@
         <v>42.05119175911687</v>
       </c>
       <c r="K83" t="n">
-        <v>12.10179104400892</v>
+        <v>12.10179104400878</v>
       </c>
       <c r="L83" t="n">
-        <v>42.05119175912387</v>
+        <v>42.05119175911852</v>
       </c>
       <c r="M83" t="n">
-        <v>1.735698009639103e-27</v>
+        <v>1.415758640290577e-27</v>
       </c>
       <c r="N83" t="n">
-        <v>6.573559892862405e-13</v>
+        <v>3.85347894800971e-13</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>0.0003370000000018081</v>
+        <v>0.0001972999999964031</v>
       </c>
     </row>
     <row r="84">
@@ -4796,13 +4796,13 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>39.99999999999923</v>
+        <v>40.00000000000239</v>
       </c>
       <c r="G84" t="n">
-        <v>49.54062056424196</v>
+        <v>49.54062056423862</v>
       </c>
       <c r="H84" t="n">
-        <v>10.67076913110266</v>
+        <v>10.67076913110466</v>
       </c>
       <c r="I84" t="n">
         <v>13.43287767644303</v>
@@ -4811,16 +4811,16 @@
         <v>46.97805561868334</v>
       </c>
       <c r="K84" t="n">
-        <v>13.43287767644302</v>
+        <v>13.43287767644311</v>
       </c>
       <c r="L84" t="n">
-        <v>46.97805561868213</v>
+        <v>46.97805561868758</v>
       </c>
       <c r="M84" t="n">
-        <v>4.747921785870814e-28</v>
+        <v>2.756380004446273e-27</v>
       </c>
       <c r="N84" t="n">
-        <v>2.076589816585572e-13</v>
+        <v>5.595824089357157e-13</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>0.0003128999999972848</v>
+        <v>0.0001966000000024337</v>
       </c>
     </row>
     <row r="85">
@@ -4848,13 +4848,13 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>39.9999999999991</v>
+        <v>39.99999999999935</v>
       </c>
       <c r="G85" t="n">
-        <v>46.26763687892486</v>
+        <v>46.26763687892453</v>
       </c>
       <c r="H85" t="n">
-        <v>11.2054509968526</v>
+        <v>11.2054509968528</v>
       </c>
       <c r="I85" t="n">
         <v>13.12799389676822</v>
@@ -4863,16 +4863,16 @@
         <v>47.93179806456282</v>
       </c>
       <c r="K85" t="n">
-        <v>13.12799389676818</v>
+        <v>13.12799389676819</v>
       </c>
       <c r="L85" t="n">
-        <v>47.93179806456187</v>
+        <v>47.93179806456236</v>
       </c>
       <c r="M85" t="n">
-        <v>2.628458118553553e-28</v>
+        <v>2.192177160351017e-28</v>
       </c>
       <c r="N85" t="n">
-        <v>1.079391889945038e-13</v>
+        <v>5.456726626185864e-14</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -4880,7 +4880,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>0.0006123999999942953</v>
+        <v>0.0002577999999999747</v>
       </c>
     </row>
     <row r="86">
@@ -4900,13 +4900,13 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>40.00000000000025</v>
+        <v>40.00000000000002</v>
       </c>
       <c r="G86" t="n">
-        <v>8.287378853667384</v>
+        <v>8.287378853667487</v>
       </c>
       <c r="H86" t="n">
-        <v>7.442907793387437</v>
+        <v>7.442907793387061</v>
       </c>
       <c r="I86" t="n">
         <v>3.043806361309816</v>
@@ -4915,16 +4915,16 @@
         <v>46.28716097005798</v>
       </c>
       <c r="K86" t="n">
-        <v>3.043806361309829</v>
+        <v>3.043806361309803</v>
       </c>
       <c r="L86" t="n">
-        <v>46.28716097005849</v>
+        <v>46.28716097005782</v>
       </c>
       <c r="M86" t="n">
-        <v>7.190556533338101e-29</v>
+        <v>2.100612020975176e-29</v>
       </c>
       <c r="N86" t="n">
-        <v>1.013567683496221e-13</v>
+        <v>5.157232924988387e-14</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>0.0003117000000116832</v>
+        <v>0.0002311999999946579</v>
       </c>
     </row>
     <row r="87">
@@ -4952,13 +4952,13 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>40.00000000000048</v>
+        <v>39.99999999999002</v>
       </c>
       <c r="G87" t="n">
-        <v>111.6672866195844</v>
+        <v>111.6672866195911</v>
       </c>
       <c r="H87" t="n">
-        <v>9.107436823745001</v>
+        <v>9.107436823741986</v>
       </c>
       <c r="I87" t="n">
         <v>18.76061115182669</v>
@@ -4967,16 +4967,16 @@
         <v>35.21970397644842</v>
       </c>
       <c r="K87" t="n">
-        <v>18.76061115182669</v>
+        <v>18.76061115182618</v>
       </c>
       <c r="L87" t="n">
-        <v>35.21970397645266</v>
+        <v>35.21970397644166</v>
       </c>
       <c r="M87" t="n">
-        <v>3.945380270164914e-28</v>
+        <v>3.975650628005633e-26</v>
       </c>
       <c r="N87" t="n">
-        <v>2.745052169597947e-13</v>
+        <v>1.369061658426729e-12</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>0.0003105999999917231</v>
+        <v>0.0002871000000013169</v>
       </c>
     </row>
     <row r="88">
@@ -5004,13 +5004,13 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>40</v>
+        <v>40.00000000000017</v>
       </c>
       <c r="G88" t="n">
-        <v>36.46925165320166</v>
+        <v>36.46925165319993</v>
       </c>
       <c r="H88" t="n">
-        <v>5.485117248731448</v>
+        <v>5.485117248731782</v>
       </c>
       <c r="I88" t="n">
         <v>6.791947165725001</v>
@@ -5019,16 +5019,16 @@
         <v>42.97845363301155</v>
       </c>
       <c r="K88" t="n">
-        <v>6.791947165725001</v>
+        <v>6.791947165725015</v>
       </c>
       <c r="L88" t="n">
-        <v>42.97845363301415</v>
+        <v>42.97845363301476</v>
       </c>
       <c r="M88" t="n">
-        <v>6.409559756308869e-29</v>
+        <v>4.605187892137886e-29</v>
       </c>
       <c r="N88" t="n">
-        <v>2.398010402927823e-13</v>
+        <v>1.8086970666661e-13</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>0.0002975999999961232</v>
+        <v>0.0002069999999960714</v>
       </c>
     </row>
     <row r="89">
@@ -5056,13 +5056,13 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>40.00000000000109</v>
+        <v>40.00000000001778</v>
       </c>
       <c r="G89" t="n">
-        <v>118.1275533419314</v>
+        <v>118.1275533419287</v>
       </c>
       <c r="H89" t="n">
-        <v>14.45881652295919</v>
+        <v>14.45881652296644</v>
       </c>
       <c r="I89" t="n">
         <v>29.4243494329187</v>
@@ -5071,16 +5071,16 @@
         <v>33.52902134866883</v>
       </c>
       <c r="K89" t="n">
-        <v>29.42434943291872</v>
+        <v>29.42434943291954</v>
       </c>
       <c r="L89" t="n">
-        <v>33.52902134867101</v>
+        <v>33.52902134868656</v>
       </c>
       <c r="M89" t="n">
-        <v>7.134001594311847e-28</v>
+        <v>1.13969782434942e-25</v>
       </c>
       <c r="N89" t="n">
-        <v>2.082798051813462e-13</v>
+        <v>2.515489765358538e-12</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>0.0003181000000012091</v>
+        <v>0.001360600000005263</v>
       </c>
     </row>
     <row r="90">
@@ -5108,13 +5108,13 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>40.00000000000032</v>
+        <v>39.99999999999739</v>
       </c>
       <c r="G90" t="n">
-        <v>116.5591888835418</v>
+        <v>116.5591888835443</v>
       </c>
       <c r="H90" t="n">
-        <v>9.085796258556982</v>
+        <v>9.085796258556181</v>
       </c>
       <c r="I90" t="n">
         <v>18.57224489984314</v>
@@ -5123,16 +5123,16 @@
         <v>34.2946546952799</v>
       </c>
       <c r="K90" t="n">
-        <v>18.57224489984311</v>
+        <v>18.57224489984297</v>
       </c>
       <c r="L90" t="n">
-        <v>34.29465469528021</v>
+        <v>34.2946546952771</v>
       </c>
       <c r="M90" t="n">
-        <v>6.967029869567667e-28</v>
+        <v>3.092747237035759e-27</v>
       </c>
       <c r="N90" t="n">
-        <v>8.78500511028066e-14</v>
+        <v>3.957539729629103e-13</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -5140,7 +5140,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>0.0003095999999942478</v>
+        <v>0.0002344999999976949</v>
       </c>
     </row>
     <row r="91">
@@ -5160,13 +5160,13 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>40.00000000000119</v>
+        <v>40.00000000000109</v>
       </c>
       <c r="G91" t="n">
-        <v>89.94497768438735</v>
+        <v>89.94497768439433</v>
       </c>
       <c r="H91" t="n">
-        <v>6.071245611740365</v>
+        <v>6.071245611740197</v>
       </c>
       <c r="I91" t="n">
         <v>12.74316145486036</v>
@@ -5175,16 +5175,16 @@
         <v>38.33487342784704</v>
       </c>
       <c r="K91" t="n">
-        <v>12.74316145486043</v>
+        <v>12.74316145486045</v>
       </c>
       <c r="L91" t="n">
-        <v>38.33487342784558</v>
+        <v>38.33487342784457</v>
       </c>
       <c r="M91" t="n">
-        <v>7.368300627420615e-28</v>
+        <v>9.393506063027453e-28</v>
       </c>
       <c r="N91" t="n">
-        <v>2.802419522234881e-13</v>
+        <v>2.976177822474966e-13</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>0.0003006000000027598</v>
+        <v>0.0002183000000002266</v>
       </c>
     </row>
     <row r="92">
@@ -5212,13 +5212,13 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>39.99999999999938</v>
+        <v>40.00000000000002</v>
       </c>
       <c r="G92" t="n">
-        <v>27.54975577790447</v>
+        <v>27.5497557779075</v>
       </c>
       <c r="H92" t="n">
-        <v>4.892227932113123</v>
+        <v>4.892227932112669</v>
       </c>
       <c r="I92" t="n">
         <v>5.21318424796729</v>
@@ -5227,16 +5227,16 @@
         <v>42.76553142273538</v>
       </c>
       <c r="K92" t="n">
-        <v>5.213184247967252</v>
+        <v>5.21318424796729</v>
       </c>
       <c r="L92" t="n">
-        <v>42.76553142273873</v>
+        <v>42.76553142273875</v>
       </c>
       <c r="M92" t="n">
-        <v>1.521597169039711e-28</v>
+        <v>4.82063527890457e-29</v>
       </c>
       <c r="N92" t="n">
-        <v>3.071124563486622e-13</v>
+        <v>2.691999186569722e-13</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>0.0003432000000032076</v>
+        <v>0.0002034000000037395</v>
       </c>
     </row>
     <row r="93">
@@ -5264,13 +5264,13 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>40.00000000000038</v>
+        <v>39.99999999999974</v>
       </c>
       <c r="G93" t="n">
-        <v>36.18064730123533</v>
+        <v>36.18064730123567</v>
       </c>
       <c r="H93" t="n">
-        <v>6.948245597906295</v>
+        <v>6.948245597906025</v>
       </c>
       <c r="I93" t="n">
         <v>7.863442946019621</v>
@@ -5279,16 +5279,16 @@
         <v>44.53239056119353</v>
       </c>
       <c r="K93" t="n">
-        <v>7.863442946019647</v>
+        <v>7.863442946019621</v>
       </c>
       <c r="L93" t="n">
-        <v>44.53239056119417</v>
+        <v>44.53239056119322</v>
       </c>
       <c r="M93" t="n">
-        <v>7.890760540329825e-29</v>
+        <v>6.786592683150567e-29</v>
       </c>
       <c r="N93" t="n">
-        <v>7.201516121491753e-14</v>
+        <v>7.755526711505722e-14</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>0.0003215000000125201</v>
+        <v>0.000197599999999909</v>
       </c>
     </row>
     <row r="94">
@@ -5316,13 +5316,13 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>40.00000000000167</v>
+        <v>40.00000000000215</v>
       </c>
       <c r="G94" t="n">
-        <v>159.4584898987719</v>
+        <v>159.4584898987713</v>
       </c>
       <c r="H94" t="n">
-        <v>12.46297880164517</v>
+        <v>12.4629788016452</v>
       </c>
       <c r="I94" t="n">
         <v>15.35104641020007</v>
@@ -5331,16 +5331,16 @@
         <v>24.24394169017284</v>
       </c>
       <c r="K94" t="n">
-        <v>15.3510464102002</v>
+        <v>15.35104641020022</v>
       </c>
       <c r="L94" t="n">
-        <v>24.24394169017574</v>
+        <v>24.24394169017625</v>
       </c>
       <c r="M94" t="n">
-        <v>1.864427823232198e-27</v>
+        <v>3.020572362468919e-27</v>
       </c>
       <c r="N94" t="n">
-        <v>3.412177189040605e-13</v>
+        <v>4.051865256447819e-13</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>0.0003021999999930358</v>
+        <v>0.0002376999999995633</v>
       </c>
     </row>
     <row r="95">
@@ -5368,13 +5368,13 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>39.99999999999552</v>
+        <v>39.99999999999017</v>
       </c>
       <c r="G95" t="n">
-        <v>109.1437807997679</v>
+        <v>109.1437807997673</v>
       </c>
       <c r="H95" t="n">
-        <v>10.89013882341225</v>
+        <v>10.89013882341041</v>
       </c>
       <c r="I95" t="n">
         <v>22.21315077475493</v>
@@ -5383,16 +5383,16 @@
         <v>35.75139630592476</v>
       </c>
       <c r="K95" t="n">
-        <v>22.21315077475474</v>
+        <v>22.21315077475442</v>
       </c>
       <c r="L95" t="n">
-        <v>35.75139630591636</v>
+        <v>35.75139630591143</v>
       </c>
       <c r="M95" t="n">
-        <v>7.749911811231108e-27</v>
+        <v>3.637048128778442e-26</v>
       </c>
       <c r="N95" t="n">
-        <v>8.533113577296445e-13</v>
+        <v>1.570125936527928e-12</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>0.0004481999999939035</v>
+        <v>0.0002023999999991588</v>
       </c>
     </row>
     <row r="96">
@@ -5420,13 +5420,13 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>39.9999999999994</v>
+        <v>39.99999999999215</v>
       </c>
       <c r="G96" t="n">
-        <v>129.4894415239123</v>
+        <v>129.4894415239179</v>
       </c>
       <c r="H96" t="n">
-        <v>10.28665410746366</v>
+        <v>10.28665410746166</v>
       </c>
       <c r="I96" t="n">
         <v>19.90993072089658</v>
@@ -5435,16 +5435,16 @@
         <v>31.41112353494288</v>
       </c>
       <c r="K96" t="n">
-        <v>19.90993072089653</v>
+        <v>19.90993072089619</v>
       </c>
       <c r="L96" t="n">
-        <v>31.41112353493929</v>
+        <v>31.41112353493216</v>
       </c>
       <c r="M96" t="n">
-        <v>2.528813702173962e-28</v>
+        <v>2.794029435283751e-26</v>
       </c>
       <c r="N96" t="n">
-        <v>2.602392668486477e-13</v>
+        <v>1.339975436933281e-12</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>0.0003252000000060207</v>
+        <v>0.0001943000000039774</v>
       </c>
     </row>
     <row r="97">
@@ -5472,13 +5472,13 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>39.99999999999928</v>
+        <v>40.0000000000002</v>
       </c>
       <c r="G97" t="n">
-        <v>41.18462776024407</v>
+        <v>41.1846277602432</v>
       </c>
       <c r="H97" t="n">
-        <v>5.288256223489763</v>
+        <v>5.288256223490111</v>
       </c>
       <c r="I97" t="n">
         <v>7.230991953515353</v>
@@ -5487,16 +5487,16 @@
         <v>42.49750700264286</v>
       </c>
       <c r="K97" t="n">
-        <v>7.230991953515315</v>
+        <v>7.230991953515366</v>
       </c>
       <c r="L97" t="n">
-        <v>42.49750700263828</v>
+        <v>42.49750700263959</v>
       </c>
       <c r="M97" t="n">
-        <v>3.433692726594037e-28</v>
+        <v>4.739842508867063e-29</v>
       </c>
       <c r="N97" t="n">
-        <v>4.382200661155975e-13</v>
+        <v>1.929416855104962e-13</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>0.0003034000000070591</v>
+        <v>0.0001923999999959847</v>
       </c>
     </row>
     <row r="98">
@@ -5524,13 +5524,13 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>40.00000000000021</v>
+        <v>39.9999999999992</v>
       </c>
       <c r="G98" t="n">
-        <v>38.643640023028</v>
+        <v>38.64364002302941</v>
       </c>
       <c r="H98" t="n">
-        <v>13.91402845610045</v>
+        <v>13.91402845609927</v>
       </c>
       <c r="I98" t="n">
         <v>12.95227042657602</v>
@@ -5539,16 +5539,16 @@
         <v>51.74105893626461</v>
       </c>
       <c r="K98" t="n">
-        <v>12.95227042657601</v>
+        <v>12.952270426576</v>
       </c>
       <c r="L98" t="n">
-        <v>51.74105893626191</v>
+        <v>51.74105893625949</v>
       </c>
       <c r="M98" t="n">
-        <v>3.099749277105676e-28</v>
+        <v>4.287402996657025e-28</v>
       </c>
       <c r="N98" t="n">
-        <v>1.940012157329678e-13</v>
+        <v>3.116851501506229e-13</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>0.0002966999999927111</v>
+        <v>0.0002132999999986396</v>
       </c>
     </row>
     <row r="99">
@@ -5576,13 +5576,13 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>39.99999999999474</v>
+        <v>39.99999999999393</v>
       </c>
       <c r="G99" t="n">
-        <v>150.6499423676166</v>
+        <v>150.6499423676163</v>
       </c>
       <c r="H99" t="n">
-        <v>14.64283022328205</v>
+        <v>14.6428302232816</v>
       </c>
       <c r="I99" t="n">
         <v>23.90850916660207</v>
@@ -5591,16 +5591,16 @@
         <v>24.13895389620888</v>
       </c>
       <c r="K99" t="n">
-        <v>23.90850916660177</v>
+        <v>23.90850916660166</v>
       </c>
       <c r="L99" t="n">
-        <v>24.13895389620614</v>
+        <v>24.1389538962058</v>
       </c>
       <c r="M99" t="n">
-        <v>1.492430979056171e-26</v>
+        <v>2.094417908605634e-26</v>
       </c>
       <c r="N99" t="n">
-        <v>6.445150778697609e-13</v>
+        <v>7.642815226014399e-13</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>0.0003432999999972708</v>
+        <v>0.0002485000000049808</v>
       </c>
     </row>
     <row r="100">
@@ -5628,13 +5628,13 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>39.99999999999789</v>
+        <v>40.00000000000446</v>
       </c>
       <c r="G100" t="n">
-        <v>131.8081046523949</v>
+        <v>131.8081046523891</v>
       </c>
       <c r="H100" t="n">
-        <v>9.806268185410065</v>
+        <v>9.806268185411701</v>
       </c>
       <c r="I100" t="n">
         <v>18.60137800648538</v>
@@ -5643,16 +5643,16 @@
         <v>31.16710803662699</v>
       </c>
       <c r="K100" t="n">
-        <v>18.60137800648527</v>
+        <v>18.60137800648559</v>
       </c>
       <c r="L100" t="n">
-        <v>31.16710803662347</v>
+        <v>31.16710803663002</v>
       </c>
       <c r="M100" t="n">
-        <v>2.107344751811635e-27</v>
+        <v>9.643155722443348e-27</v>
       </c>
       <c r="N100" t="n">
-        <v>3.95260601174618e-13</v>
+        <v>5.934620269965286e-13</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -5660,7 +5660,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>0.0003071999999946229</v>
+        <v>0.000210400000000277</v>
       </c>
     </row>
     <row r="101">
@@ -5680,13 +5680,13 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>39.99999999999393</v>
+        <v>39.99999999999798</v>
       </c>
       <c r="G101" t="n">
-        <v>121.0101405535463</v>
+        <v>121.0101405535392</v>
       </c>
       <c r="H101" t="n">
-        <v>8.856940790885387</v>
+        <v>8.856940790886263</v>
       </c>
       <c r="I101" t="n">
         <v>17.85727084796145</v>
@@ -5695,16 +5695,16 @@
         <v>33.52305968980325</v>
       </c>
       <c r="K101" t="n">
-        <v>17.85727084796112</v>
+        <v>17.85727084796126</v>
       </c>
       <c r="L101" t="n">
-        <v>33.52305968980095</v>
+        <v>33.52305968980584</v>
       </c>
       <c r="M101" t="n">
-        <v>1.583646016428516e-26</v>
+        <v>4.101310316337301e-27</v>
       </c>
       <c r="N101" t="n">
-        <v>7.502908917981528e-13</v>
+        <v>4.710446174601894e-13</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -5712,7 +5712,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>0.0003135000000042965</v>
+        <v>0.0002012000000064518</v>
       </c>
     </row>
   </sheetData>
